--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,16 +499,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Step 1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Step 2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Total</t>
         </is>
       </c>
@@ -516,7 +506,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
+          <t>PV panels</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -525,55 +515,52 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>333.9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="E2" t="n">
-        <v>344.76</v>
+        <v>212.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>kWh</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.08</v>
+        <v>83.43000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>kWh</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>kW</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>212.34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="E4" t="n">
-        <v>226.09</v>
+      <c r="C5" t="n">
+        <v>212.61</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,16 +588,6 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Step 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Step 2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -634,17 +611,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>740.218</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>194.168</v>
       </c>
     </row>
     <row r="3">
@@ -667,17 +634,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>740.218</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>194.168</v>
       </c>
     </row>
     <row r="4">
@@ -702,17 +659,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>603.974</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>490.683</v>
       </c>
     </row>
     <row r="5">
@@ -737,17 +684,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.219</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>15.981</v>
       </c>
     </row>
     <row r="6">
@@ -770,17 +707,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>497.587</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>75.961</v>
       </c>
     </row>
     <row r="7">
@@ -805,17 +732,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-387.563</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-388.457</v>
       </c>
     </row>
     <row r="8">
@@ -840,17 +757,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.4442</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2188</v>
       </c>
     </row>
     <row r="9">
@@ -873,17 +780,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4442</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2188</v>
       </c>
     </row>
     <row r="10">
@@ -894,7 +791,7 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
+          <t>PV panels</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -908,20 +805,14 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>512.927</v>
-      </c>
-      <c r="F10" t="n">
-        <v>499.351</v>
-      </c>
-      <c r="G10" t="n">
-        <v>13.576</v>
+        <v>247.132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -935,82 +826,60 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+        <v>158.508</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>89.52</v>
-      </c>
-      <c r="F12" t="n">
-        <v>84.935</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.585</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>85.04300000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Fixed cost</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Solar PV</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>15.53</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>PV panels</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1024,24 +893,14 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3.707</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -1055,32 +914,20 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>10.687</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6.605</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Lost load cost</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>1</v>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
@@ -1090,30 +937,18 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
+      <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>1</v>
+          <t>Diesel Genset 1</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
@@ -1121,28 +956,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>5.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fuel cost</t>
+          <t>Lost load cost</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C18" s="1" t="n">
@@ -1154,28 +979,18 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>497.586</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fuel CO2 emission</t>
+          <t>Replacement cost</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C19" s="1" t="n">
@@ -1183,73 +998,49 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1029.873</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RES CO2 emission</t>
+          <t>Fuel cost</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>75.961</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GEN CO2 emission</t>
+          <t>Fuel CO2 emission</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
@@ -1257,28 +1048,18 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>208.796</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BESS CO2 emission</t>
+          <t>RES CO2 emission</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>BESS</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -1294,54 +1075,84 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>GEN CO2 emission</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>BESS CO2 emission</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
           <t>TOTAL CO2 emission</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D25" s="1" t="inlineStr">
         <is>
           <t>ton</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>1029.873</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E25" t="n">
+        <v>208.796</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1353,7 +1164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1370,17 +1181,18 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Lost load cost</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Replacement cost</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Fuel cost</t>
         </is>
@@ -1394,30 +1206,35 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
+          <t>PV panels</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>Wind Turbine</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Diesel</t>
         </is>
@@ -1444,8 +1261,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
@@ -1453,6 +1272,9 @@
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1490,6 +1312,11 @@
           <t>kUSD</t>
         </is>
       </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1498,52 +1325,30 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.02</v>
+        <v>4.45</v>
       </c>
       <c r="C6" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v>6.79</v>
-      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>316.23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>337.04</v>
+      <c r="H6" t="n">
+        <v>91.15000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1555,7 +1360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,34 +1425,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.14</v>
+        <v>22.26</v>
       </c>
       <c r="C4" t="n">
-        <v>51.27</v>
+        <v>87.12</v>
       </c>
       <c r="D4" t="n">
-        <v>8.300000000000001</v>
+        <v>42.14</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>53.77</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50.48</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1662,7 +1448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1682,12 +1468,13 @@
           <t>Renewable penetration</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Curtailment share</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Battery usage</t>
         </is>
@@ -1706,15 +1493,20 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
+          <t>PV panels</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
@@ -1738,6 +1530,9 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1765,6 +1560,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1773,38 +1573,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.14</v>
+        <v>22.26</v>
       </c>
       <c r="C6" t="n">
-        <v>51.27</v>
+        <v>20.23</v>
       </c>
       <c r="D6" t="n">
-        <v>8.300000000000001</v>
+        <v>66.89</v>
       </c>
       <c r="E6" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>53.77</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50.48</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.857</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="3">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.857</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.565</v>
+        <v>1.165</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="6">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.632</v>
+        <v>0.8628</v>
       </c>
     </row>
     <row r="9">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.632</v>
+        <v>0.8628</v>
       </c>
     </row>
     <row r="10">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="16">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1250,10 +1250,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>49.76</v>
+        <v>53.45</v>
       </c>
       <c r="D4" t="n">
-        <v>61.8</v>
+        <v>62.2</v>
       </c>
     </row>
   </sheetData>
@@ -1380,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>49.76</v>
+        <v>53.45</v>
       </c>
       <c r="E6" t="n">
-        <v>61.8</v>
+        <v>62.2</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.453</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="3">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.453</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.165</v>
+        <v>1.465</v>
       </c>
     </row>
     <row r="5">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8628</v>
+        <v>1.434</v>
       </c>
     </row>
     <row r="9">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8628</v>
+        <v>1.434</v>
       </c>
     </row>
     <row r="10">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
@@ -1250,10 +1250,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>53.45</v>
+        <v>53.28</v>
       </c>
       <c r="D4" t="n">
-        <v>62.2</v>
+        <v>63.73</v>
       </c>
     </row>
   </sheetData>
@@ -1380,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>53.45</v>
+        <v>53.28</v>
       </c>
       <c r="E6" t="n">
-        <v>62.2</v>
+        <v>63.73</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54.18</v>
+        <v>54.19</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187.17</v>
+        <v>187.23</v>
       </c>
     </row>
     <row r="4">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>131.949</v>
+        <v>131.947</v>
       </c>
     </row>
     <row r="3">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>131.949</v>
+        <v>131.947</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>87.548</v>
+        <v>87.56</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.831</v>
+        <v>15.833</v>
       </c>
     </row>
     <row r="6">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.839</v>
+        <v>28.823</v>
       </c>
     </row>
     <row r="7">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>51.475</v>
+        <v>51.481</v>
       </c>
     </row>
     <row r="11">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.076</v>
+        <v>28.084</v>
       </c>
     </row>
     <row r="12">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.998</v>
+        <v>7.995</v>
       </c>
     </row>
     <row r="13">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.202999999999999</v>
+        <v>8.205</v>
       </c>
     </row>
     <row r="15">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.116</v>
+        <v>3.115</v>
       </c>
     </row>
     <row r="16">
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.044</v>
+        <v>24.028</v>
       </c>
     </row>
     <row r="19">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>668.522</v>
+        <v>668.308</v>
       </c>
     </row>
     <row r="20">
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>668.522</v>
+        <v>668.308</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1255,7 @@
         <v>0.93</v>
       </c>
       <c r="C6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D6" t="n">
         <v>0.64</v>
@@ -1267,7 +1267,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -1280,7 +1280,7 @@
         <v>0.93</v>
       </c>
       <c r="C7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D7" t="n">
         <v>0.64</v>
@@ -1305,7 +1305,7 @@
         <v>0.93</v>
       </c>
       <c r="C8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D8" t="n">
         <v>0.64</v>
@@ -1330,7 +1330,7 @@
         <v>0.93</v>
       </c>
       <c r="C9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D9" t="n">
         <v>0.64</v>
@@ -1355,7 +1355,7 @@
         <v>0.93</v>
       </c>
       <c r="C10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D10" t="n">
         <v>0.64</v>
@@ -1380,7 +1380,7 @@
         <v>0.93</v>
       </c>
       <c r="C11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D11" t="n">
         <v>0.64</v>
@@ -1392,7 +1392,7 @@
         <v>1.05</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="12">
@@ -1405,7 +1405,7 @@
         <v>0.93</v>
       </c>
       <c r="C12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D12" t="n">
         <v>0.64</v>
@@ -1417,7 +1417,7 @@
         <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>5.08</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="13">
@@ -1430,7 +1430,7 @@
         <v>0.93</v>
       </c>
       <c r="C13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D13" t="n">
         <v>0.64</v>
@@ -1442,7 +1442,7 @@
         <v>1.02</v>
       </c>
       <c r="G13" t="n">
-        <v>6.73</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="14">
@@ -1455,7 +1455,7 @@
         <v>0.93</v>
       </c>
       <c r="C14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D14" t="n">
         <v>0.64</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>8.51</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="15">
@@ -1480,7 +1480,7 @@
         <v>0.93</v>
       </c>
       <c r="C15" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D15" t="n">
         <v>0.64</v>
@@ -1492,7 +1492,7 @@
         <v>0.97</v>
       </c>
       <c r="G15" t="n">
-        <v>10.44</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="16">
@@ -1505,7 +1505,7 @@
         <v>0.93</v>
       </c>
       <c r="C16" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D16" t="n">
         <v>0.64</v>
@@ -1530,7 +1530,7 @@
         <v>0.93</v>
       </c>
       <c r="C17" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D17" t="n">
         <v>0.64</v>
@@ -1542,7 +1542,7 @@
         <v>0.91</v>
       </c>
       <c r="G17" t="n">
-        <v>14.91</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="18">
@@ -1555,7 +1555,7 @@
         <v>0.93</v>
       </c>
       <c r="C18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D18" t="n">
         <v>0.64</v>
@@ -1580,7 +1580,7 @@
         <v>0.93</v>
       </c>
       <c r="C19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D19" t="n">
         <v>0.64</v>
@@ -1605,7 +1605,7 @@
         <v>0.93</v>
       </c>
       <c r="C20" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D20" t="n">
         <v>0.64</v>
@@ -1630,7 +1630,7 @@
         <v>0.93</v>
       </c>
       <c r="C21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D21" t="n">
         <v>0.64</v>
@@ -1655,7 +1655,7 @@
         <v>0.93</v>
       </c>
       <c r="C22" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D22" t="n">
         <v>0.64</v>
@@ -1680,7 +1680,7 @@
         <v>0.93</v>
       </c>
       <c r="C23" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D23" t="n">
         <v>0.64</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="G23" t="n">
-        <v>32.75</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="24">
@@ -1705,7 +1705,7 @@
         <v>0.93</v>
       </c>
       <c r="C24" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D24" t="n">
         <v>0.64</v>
@@ -1717,7 +1717,7 @@
         <v>0.76</v>
       </c>
       <c r="G24" t="n">
-        <v>36.43</v>
+        <v>36.42</v>
       </c>
     </row>
     <row r="25">
@@ -1730,7 +1730,7 @@
         <v>0.93</v>
       </c>
       <c r="C25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D25" t="n">
         <v>0.64</v>
@@ -1742,7 +1742,7 @@
         <v>0.83</v>
       </c>
       <c r="G25" t="n">
-        <v>40.32</v>
+        <v>40.31</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1830,7 @@
         <v>99.55</v>
       </c>
       <c r="D4" t="n">
-        <v>20.83</v>
+        <v>20.84</v>
       </c>
       <c r="E4" t="n">
         <v>53.45</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="C5" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>17.13</v>
+        <v>17.14</v>
       </c>
       <c r="E5" t="n">
         <v>53.18</v>
@@ -1862,10 +1862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="C6" t="n">
-        <v>98.31999999999999</v>
+        <v>98.33</v>
       </c>
       <c r="D6" t="n">
         <v>13.7</v>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="C7" t="n">
-        <v>96.94</v>
+        <v>96.95</v>
       </c>
       <c r="D7" t="n">
         <v>10.7</v>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="C8" t="n">
-        <v>94.81</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="D8" t="n">
         <v>8.369999999999999</v>
@@ -1919,16 +1919,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.710000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>92.03</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="D9" t="n">
         <v>6.72</v>
       </c>
       <c r="E9" t="n">
-        <v>46.69</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="10">
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.87</v>
+        <v>11.86</v>
       </c>
       <c r="C10" t="n">
-        <v>88.97</v>
+        <v>88.98</v>
       </c>
       <c r="D10" t="n">
         <v>5.42</v>
@@ -1957,16 +1957,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.98</v>
+        <v>14.97</v>
       </c>
       <c r="C11" t="n">
-        <v>85.89</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>4.24</v>
+        <v>4.23</v>
       </c>
       <c r="E11" t="n">
-        <v>41.03</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="12">
@@ -1976,10 +1976,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.04</v>
+        <v>18.03</v>
       </c>
       <c r="C12" t="n">
-        <v>82.8</v>
+        <v>82.81</v>
       </c>
       <c r="D12" t="n">
         <v>3.17</v>
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.08</v>
+        <v>21.07</v>
       </c>
       <c r="C13" t="n">
-        <v>79.69</v>
+        <v>79.7</v>
       </c>
       <c r="D13" t="n">
         <v>2.26</v>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.2</v>
+        <v>24.19</v>
       </c>
       <c r="C14" t="n">
-        <v>76.5</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>1.58</v>
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.31</v>
+        <v>27.3</v>
       </c>
       <c r="C15" t="n">
         <v>73.31999999999999</v>
@@ -2055,7 +2055,7 @@
         <v>30.37</v>
       </c>
       <c r="C16" t="n">
-        <v>70.17</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>0.6899999999999999</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.39</v>
+        <v>33.38</v>
       </c>
       <c r="C17" t="n">
-        <v>67.09</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D17" t="n">
         <v>0.41</v>
@@ -2090,16 +2090,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.33</v>
+        <v>36.32</v>
       </c>
       <c r="C18" t="n">
-        <v>64.08</v>
+        <v>64.09</v>
       </c>
       <c r="D18" t="n">
         <v>0.21</v>
       </c>
       <c r="E18" t="n">
-        <v>22.57</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="19">
@@ -2109,16 +2109,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.22</v>
+        <v>39.21</v>
       </c>
       <c r="C19" t="n">
-        <v>61.15</v>
+        <v>61.16</v>
       </c>
       <c r="D19" t="n">
         <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>20.5</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="20">
@@ -2128,16 +2128,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.03</v>
+        <v>42.02</v>
       </c>
       <c r="C20" t="n">
-        <v>58.31</v>
+        <v>58.32</v>
       </c>
       <c r="D20" t="n">
         <v>0.03</v>
       </c>
       <c r="E20" t="n">
-        <v>18.92</v>
+        <v>18.91</v>
       </c>
     </row>
     <row r="21">
@@ -2147,16 +2147,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.76</v>
+        <v>44.75</v>
       </c>
       <c r="C21" t="n">
-        <v>55.57</v>
+        <v>55.58</v>
       </c>
       <c r="D21" t="n">
         <v>0.01</v>
       </c>
       <c r="E21" t="n">
-        <v>17.94</v>
+        <v>17.92</v>
       </c>
     </row>
     <row r="22">
@@ -2166,16 +2166,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.42</v>
+        <v>47.41</v>
       </c>
       <c r="C22" t="n">
-        <v>52.93</v>
+        <v>52.94</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>17.89</v>
+        <v>17.85</v>
       </c>
     </row>
     <row r="23">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.99</v>
+        <v>49.98</v>
       </c>
       <c r="C23" t="n">
         <v>50.4</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>18.66</v>
+        <v>18.61</v>
       </c>
     </row>
   </sheetData>
@@ -2325,7 +2325,7 @@
         <v>99.55</v>
       </c>
       <c r="D6" t="n">
-        <v>20.83</v>
+        <v>20.84</v>
       </c>
       <c r="E6" t="n">
         <v>53.45</v>
@@ -2338,13 +2338,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="C7" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>17.13</v>
+        <v>17.14</v>
       </c>
       <c r="E7" t="n">
         <v>53.18</v>
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="C8" t="n">
-        <v>98.31999999999999</v>
+        <v>98.33</v>
       </c>
       <c r="D8" t="n">
         <v>13.7</v>
@@ -2376,10 +2376,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="C9" t="n">
-        <v>96.94</v>
+        <v>96.95</v>
       </c>
       <c r="D9" t="n">
         <v>10.7</v>
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="C10" t="n">
-        <v>94.81</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="D10" t="n">
         <v>8.369999999999999</v>
@@ -2414,16 +2414,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.710000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>92.03</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="D11" t="n">
         <v>6.72</v>
       </c>
       <c r="E11" t="n">
-        <v>46.69</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="12">
@@ -2433,10 +2433,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.87</v>
+        <v>11.86</v>
       </c>
       <c r="C12" t="n">
-        <v>88.97</v>
+        <v>88.98</v>
       </c>
       <c r="D12" t="n">
         <v>5.42</v>
@@ -2452,16 +2452,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.98</v>
+        <v>14.97</v>
       </c>
       <c r="C13" t="n">
-        <v>85.89</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>4.24</v>
+        <v>4.23</v>
       </c>
       <c r="E13" t="n">
-        <v>41.03</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="14">
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.04</v>
+        <v>18.03</v>
       </c>
       <c r="C14" t="n">
-        <v>82.8</v>
+        <v>82.81</v>
       </c>
       <c r="D14" t="n">
         <v>3.17</v>
@@ -2490,10 +2490,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.08</v>
+        <v>21.07</v>
       </c>
       <c r="C15" t="n">
-        <v>79.69</v>
+        <v>79.7</v>
       </c>
       <c r="D15" t="n">
         <v>2.26</v>
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.2</v>
+        <v>24.19</v>
       </c>
       <c r="C16" t="n">
-        <v>76.5</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>1.58</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.31</v>
+        <v>27.3</v>
       </c>
       <c r="C17" t="n">
         <v>73.31999999999999</v>
@@ -2550,7 +2550,7 @@
         <v>30.37</v>
       </c>
       <c r="C18" t="n">
-        <v>70.17</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="D18" t="n">
         <v>0.6899999999999999</v>
@@ -2566,10 +2566,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.39</v>
+        <v>33.38</v>
       </c>
       <c r="C19" t="n">
-        <v>67.09</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D19" t="n">
         <v>0.41</v>
@@ -2585,16 +2585,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.33</v>
+        <v>36.32</v>
       </c>
       <c r="C20" t="n">
-        <v>64.08</v>
+        <v>64.09</v>
       </c>
       <c r="D20" t="n">
         <v>0.21</v>
       </c>
       <c r="E20" t="n">
-        <v>22.57</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="21">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.22</v>
+        <v>39.21</v>
       </c>
       <c r="C21" t="n">
-        <v>61.15</v>
+        <v>61.16</v>
       </c>
       <c r="D21" t="n">
         <v>0.1</v>
       </c>
       <c r="E21" t="n">
-        <v>20.5</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="22">
@@ -2623,16 +2623,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.03</v>
+        <v>42.02</v>
       </c>
       <c r="C22" t="n">
-        <v>58.31</v>
+        <v>58.32</v>
       </c>
       <c r="D22" t="n">
         <v>0.03</v>
       </c>
       <c r="E22" t="n">
-        <v>18.92</v>
+        <v>18.91</v>
       </c>
     </row>
     <row r="23">
@@ -2642,16 +2642,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.76</v>
+        <v>44.75</v>
       </c>
       <c r="C23" t="n">
-        <v>55.57</v>
+        <v>55.58</v>
       </c>
       <c r="D23" t="n">
         <v>0.01</v>
       </c>
       <c r="E23" t="n">
-        <v>17.94</v>
+        <v>17.92</v>
       </c>
     </row>
     <row r="24">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.42</v>
+        <v>47.41</v>
       </c>
       <c r="C24" t="n">
-        <v>52.93</v>
+        <v>52.94</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>17.89</v>
+        <v>17.85</v>
       </c>
     </row>
     <row r="25">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.99</v>
+        <v>49.98</v>
       </c>
       <c r="C25" t="n">
         <v>50.4</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.66</v>
+        <v>18.61</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54.19</v>
+        <v>89.58</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187.23</v>
+        <v>304.35</v>
       </c>
     </row>
     <row r="4">
@@ -545,10 +545,39 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.99</v>
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>248.9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -559,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +625,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>131.947</v>
+        <v>142.825</v>
       </c>
     </row>
     <row r="3">
@@ -619,7 +648,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>131.947</v>
+        <v>142.825</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +673,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>87.56</v>
+        <v>134.887</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +698,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.833</v>
+        <v>13.768</v>
       </c>
     </row>
     <row r="6">
@@ -692,7 +721,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.823</v>
+        <v>22.699</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +746,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.269</v>
+        <v>-28.529</v>
       </c>
     </row>
     <row r="8">
@@ -742,7 +771,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2562</v>
+        <v>0.2728</v>
       </c>
     </row>
     <row r="9">
@@ -765,7 +794,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2562</v>
+        <v>0.2728</v>
       </c>
     </row>
     <row r="10">
@@ -790,7 +819,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>51.481</v>
+        <v>85.10299999999999</v>
       </c>
     </row>
     <row r="11">
@@ -811,14 +840,14 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.084</v>
+        <v>45.653</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
+          <t>Ice Tank</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -832,18 +861,14 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.995</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Fixed cost</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
+          <t>Compressor</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -857,162 +882,148 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.512</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
+          <t>Diesel Genset 1</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3.877</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Fixed cost</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Solar PV</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4.581</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>8.205</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>8.192</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>3.115</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Lost load cost</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>4.795</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Fuel cost</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>24.028</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Fuel CO2 emission</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>1</v>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>668.308</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RES CO2 emission</t>
+          <t>Lost load cost</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1022,57 +1033,53 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GEN CO2 emission</t>
+          <t>Replacement cost</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>5.082</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BESS CO2 emission</t>
+          <t>Fuel cost</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>BESS</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>17.617</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>TOTAL CO2 emission</t>
+          <t>Fuel CO2 emission</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1089,13 +1096,113 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>668.308</v>
+        <v>77.041</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RES CO2 emission</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GEN CO2 emission</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>BESS CO2 emission</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL CO2 emission</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>77.041</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+  <mergeCells count="4">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1107,7 +1214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,17 +1231,18 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Lost load cost</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Replacement cost</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Fuel cost</t>
         </is>
@@ -1158,20 +1266,25 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Diesel</t>
         </is>
@@ -1198,8 +1311,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
@@ -1207,6 +1322,9 @@
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1244,6 +1362,11 @@
           <t>kUSD</t>
         </is>
       </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1252,22 +1375,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.93</v>
+        <v>1.53</v>
       </c>
       <c r="C6" t="n">
-        <v>1.69</v>
+        <v>2.74</v>
       </c>
       <c r="D6" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="G6" t="n">
-        <v>0.18</v>
+        <v>1.72</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.37</v>
       </c>
     </row>
     <row r="7">
@@ -1277,22 +1403,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.93</v>
+        <v>1.53</v>
       </c>
       <c r="C7" t="n">
-        <v>1.69</v>
+        <v>2.74</v>
       </c>
       <c r="D7" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.99</v>
-      </c>
       <c r="G7" t="n">
-        <v>0.37</v>
+        <v>1.72</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.16</v>
       </c>
     </row>
     <row r="8">
@@ -1302,22 +1431,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.93</v>
+        <v>1.53</v>
       </c>
       <c r="C8" t="n">
-        <v>1.69</v>
+        <v>2.74</v>
       </c>
       <c r="D8" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="n">
-        <v>1.02</v>
-      </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.45</v>
       </c>
     </row>
     <row r="9">
@@ -1327,22 +1459,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.93</v>
+        <v>1.53</v>
       </c>
       <c r="C9" t="n">
-        <v>1.69</v>
+        <v>2.74</v>
       </c>
       <c r="D9" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
-        <v>1.05</v>
-      </c>
       <c r="G9" t="n">
-        <v>1.29</v>
+        <v>1.68</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1352,402 +1487,30 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.93</v>
+        <v>1.53</v>
       </c>
       <c r="C10" t="n">
-        <v>1.69</v>
+        <v>2.74</v>
       </c>
       <c r="D10" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="n">
-        <v>1.06</v>
-      </c>
       <c r="G10" t="n">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Year 6</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Year 7</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Year 8</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6.72</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Year 9</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Year 10</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10.43</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Year 11</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12.58</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Year 12</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Year 13</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="G18" t="n">
-        <v>17.41</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Year 14</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="G19" t="n">
-        <v>20.09</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Year 15</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G20" t="n">
-        <v>22.96</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Year 16</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G21" t="n">
-        <v>26.02</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Year 17</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="G22" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Year 18</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G23" t="n">
-        <v>32.74</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Year 19</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="G24" t="n">
-        <v>36.42</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Year 20</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="G25" t="n">
-        <v>40.31</v>
+        <v>1.66</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1759,7 +1522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,6 +1552,11 @@
           <t>Battery usage</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank usage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1816,6 +1584,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1824,16 +1597,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.58</v>
+        <v>3.87</v>
       </c>
       <c r="C4" t="n">
-        <v>99.55</v>
+        <v>96.62</v>
       </c>
       <c r="D4" t="n">
-        <v>20.84</v>
+        <v>9.73</v>
       </c>
       <c r="E4" t="n">
-        <v>53.45</v>
+        <v>50.71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1843,16 +1619,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.1</v>
+        <v>6.46</v>
       </c>
       <c r="C5" t="n">
-        <v>99.09999999999999</v>
+        <v>94.22</v>
       </c>
       <c r="D5" t="n">
-        <v>17.14</v>
+        <v>7.61</v>
       </c>
       <c r="E5" t="n">
-        <v>53.18</v>
+        <v>48.35</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1862,16 +1641,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.98</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>98.33</v>
+        <v>91.31</v>
       </c>
       <c r="D6" t="n">
-        <v>13.7</v>
+        <v>6.15</v>
       </c>
       <c r="E6" t="n">
-        <v>52.57</v>
+        <v>45.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1881,16 +1663,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.49</v>
+        <v>12.65</v>
       </c>
       <c r="C7" t="n">
-        <v>96.95</v>
+        <v>88.31</v>
       </c>
       <c r="D7" t="n">
-        <v>10.7</v>
+        <v>4.85</v>
       </c>
       <c r="E7" t="n">
-        <v>51.34</v>
+        <v>42.77</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1900,301 +1685,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.77</v>
+        <v>15.7</v>
       </c>
       <c r="C8" t="n">
-        <v>94.81999999999999</v>
+        <v>85.28</v>
       </c>
       <c r="D8" t="n">
-        <v>8.369999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="E8" t="n">
-        <v>49.34</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Year 6</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="C9" t="n">
-        <v>92.04000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="E9" t="n">
-        <v>46.7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Year 7</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="C10" t="n">
-        <v>88.98</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="E10" t="n">
-        <v>43.84</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Year 8</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="C11" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E11" t="n">
-        <v>41.04</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Year 9</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="C12" t="n">
-        <v>82.81</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="E12" t="n">
-        <v>38.31</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Year 10</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="C13" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="E13" t="n">
-        <v>35.61</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Year 11</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>24.19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>76.51000000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="E14" t="n">
-        <v>32.86</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Year 12</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>73.31999999999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E15" t="n">
-        <v>30.15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Year 13</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>30.37</v>
-      </c>
-      <c r="C16" t="n">
-        <v>70.18000000000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E16" t="n">
-        <v>27.51</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Year 14</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="C17" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E17" t="n">
-        <v>24.95</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Year 15</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>36.32</v>
-      </c>
-      <c r="C18" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E18" t="n">
-        <v>22.56</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Year 16</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>39.21</v>
-      </c>
-      <c r="C19" t="n">
-        <v>61.16</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>20.49</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Year 17</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>42.02</v>
-      </c>
-      <c r="C20" t="n">
-        <v>58.32</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E20" t="n">
-        <v>18.91</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Year 18</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>44.75</v>
-      </c>
-      <c r="C21" t="n">
-        <v>55.58</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E21" t="n">
-        <v>17.92</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Year 19</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>47.41</v>
-      </c>
-      <c r="C22" t="n">
-        <v>52.94</v>
-      </c>
-      <c r="D22" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>17.85</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Year 20</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>49.98</v>
-      </c>
-      <c r="C23" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>18.61</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +1711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2238,6 +1741,11 @@
           <t>Battery usage</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank usage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2265,6 +1773,11 @@
           <t>Battery bank</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2284,6 +1797,9 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2311,6 +1827,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2319,16 +1840,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.58</v>
+        <v>3.82</v>
       </c>
       <c r="C6" t="n">
-        <v>99.55</v>
+        <v>96.62</v>
       </c>
       <c r="D6" t="n">
-        <v>20.84</v>
+        <v>9.73</v>
       </c>
       <c r="E6" t="n">
-        <v>53.45</v>
+        <v>50.71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.83</v>
       </c>
     </row>
     <row r="7">
@@ -2338,16 +1862,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.1</v>
+        <v>6.38</v>
       </c>
       <c r="C7" t="n">
-        <v>99.09999999999999</v>
+        <v>94.22</v>
       </c>
       <c r="D7" t="n">
-        <v>17.14</v>
+        <v>7.61</v>
       </c>
       <c r="E7" t="n">
-        <v>53.18</v>
+        <v>48.35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.84</v>
       </c>
     </row>
     <row r="8">
@@ -2357,16 +1884,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.98</v>
+        <v>9.43</v>
       </c>
       <c r="C8" t="n">
-        <v>98.33</v>
+        <v>91.31</v>
       </c>
       <c r="D8" t="n">
-        <v>13.7</v>
+        <v>6.15</v>
       </c>
       <c r="E8" t="n">
-        <v>52.57</v>
+        <v>45.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.84</v>
       </c>
     </row>
     <row r="9">
@@ -2376,16 +1906,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.49</v>
+        <v>12.5</v>
       </c>
       <c r="C9" t="n">
-        <v>96.95</v>
+        <v>88.31</v>
       </c>
       <c r="D9" t="n">
-        <v>10.7</v>
+        <v>4.85</v>
       </c>
       <c r="E9" t="n">
-        <v>51.34</v>
+        <v>42.77</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.84</v>
       </c>
     </row>
     <row r="10">
@@ -2395,301 +1928,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.77</v>
+        <v>15.53</v>
       </c>
       <c r="C10" t="n">
-        <v>94.81999999999999</v>
+        <v>85.28</v>
       </c>
       <c r="D10" t="n">
-        <v>8.369999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="E10" t="n">
-        <v>49.34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Year 6</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>92.04000000000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="E11" t="n">
-        <v>46.7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Year 7</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="C12" t="n">
-        <v>88.98</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="E12" t="n">
-        <v>43.84</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Year 8</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="C13" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E13" t="n">
-        <v>41.04</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Year 9</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="C14" t="n">
-        <v>82.81</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="E14" t="n">
-        <v>38.31</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Year 10</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="C15" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="E15" t="n">
-        <v>35.61</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Year 11</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>24.19</v>
-      </c>
-      <c r="C16" t="n">
-        <v>76.51000000000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="E16" t="n">
-        <v>32.86</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Year 12</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>73.31999999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30.15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Year 13</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>30.37</v>
-      </c>
-      <c r="C18" t="n">
-        <v>70.18000000000001</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>27.51</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Year 14</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="C19" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E19" t="n">
-        <v>24.95</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Year 15</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>36.32</v>
-      </c>
-      <c r="C20" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E20" t="n">
-        <v>22.56</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Year 16</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>39.21</v>
-      </c>
-      <c r="C21" t="n">
-        <v>61.16</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>20.49</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Year 17</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>42.02</v>
-      </c>
-      <c r="C22" t="n">
-        <v>58.32</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E22" t="n">
-        <v>18.91</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Year 18</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>44.75</v>
-      </c>
-      <c r="C23" t="n">
-        <v>55.58</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E23" t="n">
-        <v>17.92</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Year 19</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>47.41</v>
-      </c>
-      <c r="C24" t="n">
-        <v>52.94</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>17.85</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Year 20</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>49.98</v>
-      </c>
-      <c r="C25" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>18.61</v>
+        <v>40.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.84</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>89.58</v>
+        <v>95.09</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>304.35</v>
+        <v>319.82</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.69</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="5">
@@ -560,24 +560,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.84</v>
+        <v>38.12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Compressor</t>
+        </is>
+      </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>248.9</v>
+        <v>2.38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:A6"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -625,7 +626,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>142.825</v>
+        <v>156.057</v>
       </c>
     </row>
     <row r="3">
@@ -648,7 +649,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>142.825</v>
+        <v>156.057</v>
       </c>
     </row>
     <row r="4">
@@ -673,7 +674,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>134.887</v>
+        <v>145.083</v>
       </c>
     </row>
     <row r="5">
@@ -698,7 +699,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13.768</v>
+        <v>15.188</v>
       </c>
     </row>
     <row r="6">
@@ -721,7 +722,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.699</v>
+        <v>26.131</v>
       </c>
     </row>
     <row r="7">
@@ -746,7 +747,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-28.529</v>
+        <v>-30.346</v>
       </c>
     </row>
     <row r="8">
@@ -771,7 +772,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2728</v>
+        <v>0.2785</v>
       </c>
     </row>
     <row r="9">
@@ -794,7 +795,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2728</v>
+        <v>0.2785</v>
       </c>
     </row>
     <row r="10">
@@ -819,7 +820,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>85.10299999999999</v>
+        <v>90.331</v>
       </c>
     </row>
     <row r="11">
@@ -840,7 +841,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>45.653</v>
+        <v>47.974</v>
       </c>
     </row>
     <row r="12">
@@ -861,7 +862,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.006</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="13">
@@ -882,7 +883,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.249</v>
+        <v>2.376</v>
       </c>
     </row>
     <row r="14">
@@ -903,7 +904,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.877</v>
+        <v>4.326</v>
       </c>
     </row>
     <row r="15">
@@ -928,7 +929,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.581</v>
+        <v>4.863</v>
       </c>
     </row>
     <row r="16">
@@ -949,7 +950,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8.192</v>
+        <v>8.608000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -970,7 +971,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.008</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="18">
@@ -983,7 +984,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.06</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1004,7 +1005,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.928</v>
+        <v>1.035</v>
       </c>
     </row>
     <row r="20">
@@ -1050,7 +1051,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.082</v>
+        <v>5.347</v>
       </c>
     </row>
     <row r="22">
@@ -1073,7 +1074,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.617</v>
+        <v>20.784</v>
       </c>
     </row>
     <row r="23">
@@ -1096,7 +1097,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>77.041</v>
+        <v>92.07599999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1194,7 +1195,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>77.041</v>
+        <v>92.07599999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1375,25 +1376,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="C6" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E6" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="H6" t="n">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="7">
@@ -1403,25 +1404,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="C7" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E7" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="H7" t="n">
-        <v>4.16</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="8">
@@ -1431,25 +1432,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="C8" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E8" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="H8" t="n">
-        <v>6.45</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="9">
@@ -1459,25 +1460,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="C9" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E9" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="H9" t="n">
-        <v>8.970000000000001</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="10">
@@ -1487,25 +1488,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="C10" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E10" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="H10" t="n">
-        <v>11.69</v>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>
@@ -1597,19 +1598,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.87</v>
+        <v>3.85</v>
       </c>
       <c r="C4" t="n">
-        <v>96.62</v>
+        <v>96.81999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>9.73</v>
+        <v>10.29</v>
       </c>
       <c r="E4" t="n">
-        <v>50.71</v>
+        <v>53.54</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -1619,19 +1620,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.46</v>
+        <v>7.27</v>
       </c>
       <c r="C5" t="n">
-        <v>94.22</v>
+        <v>93.89</v>
       </c>
       <c r="D5" t="n">
-        <v>7.61</v>
+        <v>7.84</v>
       </c>
       <c r="E5" t="n">
-        <v>48.35</v>
+        <v>51.01</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -1641,19 +1642,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.550000000000001</v>
+        <v>11.41</v>
       </c>
       <c r="C6" t="n">
-        <v>91.31</v>
+        <v>90.31</v>
       </c>
       <c r="D6" t="n">
-        <v>6.15</v>
+        <v>6.09</v>
       </c>
       <c r="E6" t="n">
-        <v>45.5</v>
+        <v>47.85</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -1663,19 +1664,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.65</v>
+        <v>15.45</v>
       </c>
       <c r="C7" t="n">
-        <v>88.31</v>
+        <v>86.77</v>
       </c>
       <c r="D7" t="n">
-        <v>4.85</v>
+        <v>4.58</v>
       </c>
       <c r="E7" t="n">
-        <v>42.77</v>
+        <v>44.81</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
@@ -1685,19 +1686,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.7</v>
+        <v>19.47</v>
       </c>
       <c r="C8" t="n">
-        <v>85.28</v>
+        <v>83.22</v>
       </c>
       <c r="D8" t="n">
-        <v>3.68</v>
+        <v>3.28</v>
       </c>
       <c r="E8" t="n">
-        <v>40.3</v>
+        <v>42.18</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1840,19 +1841,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.82</v>
+        <v>3.61</v>
       </c>
       <c r="C6" t="n">
-        <v>96.62</v>
+        <v>96.81999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.73</v>
+        <v>10.29</v>
       </c>
       <c r="E6" t="n">
-        <v>50.71</v>
+        <v>53.54</v>
       </c>
       <c r="F6" t="n">
-        <v>3.83</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="7">
@@ -1862,19 +1863,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.38</v>
+        <v>6.76</v>
       </c>
       <c r="C7" t="n">
-        <v>94.22</v>
+        <v>93.89</v>
       </c>
       <c r="D7" t="n">
-        <v>7.61</v>
+        <v>7.84</v>
       </c>
       <c r="E7" t="n">
-        <v>48.35</v>
+        <v>51.01</v>
       </c>
       <c r="F7" t="n">
-        <v>3.84</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1884,19 +1885,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.43</v>
+        <v>10.5</v>
       </c>
       <c r="C8" t="n">
-        <v>91.31</v>
+        <v>90.31</v>
       </c>
       <c r="D8" t="n">
-        <v>6.15</v>
+        <v>6.09</v>
       </c>
       <c r="E8" t="n">
-        <v>45.5</v>
+        <v>47.85</v>
       </c>
       <c r="F8" t="n">
-        <v>3.84</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="9">
@@ -1906,19 +1907,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.5</v>
+        <v>14.1</v>
       </c>
       <c r="C9" t="n">
-        <v>88.31</v>
+        <v>86.77</v>
       </c>
       <c r="D9" t="n">
-        <v>4.85</v>
+        <v>4.58</v>
       </c>
       <c r="E9" t="n">
-        <v>42.77</v>
+        <v>44.81</v>
       </c>
       <c r="F9" t="n">
-        <v>3.84</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="10">
@@ -1928,19 +1929,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.53</v>
+        <v>17.62</v>
       </c>
       <c r="C10" t="n">
-        <v>85.28</v>
+        <v>83.22</v>
       </c>
       <c r="D10" t="n">
-        <v>3.68</v>
+        <v>3.28</v>
       </c>
       <c r="E10" t="n">
-        <v>40.3</v>
+        <v>42.18</v>
       </c>
       <c r="F10" t="n">
-        <v>3.84</v>
+        <v>5.73</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,67 +515,52 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95.09</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>kWh</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>319.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>kWh</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.81</v>
+        <v>187.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Ice Tank</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38.12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Compressor</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2.38</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,7 +611,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>156.057</v>
+        <v>131.944</v>
       </c>
     </row>
     <row r="3">
@@ -649,7 +634,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>156.057</v>
+        <v>131.944</v>
       </c>
     </row>
     <row r="4">
@@ -674,7 +659,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>145.083</v>
+        <v>87.544</v>
       </c>
     </row>
     <row r="5">
@@ -699,7 +684,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.188</v>
+        <v>15.829</v>
       </c>
     </row>
     <row r="6">
@@ -722,7 +707,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.131</v>
+        <v>28.839</v>
       </c>
     </row>
     <row r="7">
@@ -747,7 +732,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-30.346</v>
+        <v>-0.269</v>
       </c>
     </row>
     <row r="8">
@@ -772,7 +757,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2785</v>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="9">
@@ -795,7 +780,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2785</v>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="10">
@@ -820,14 +805,14 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>90.331</v>
+        <v>51.475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -841,14 +826,14 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>47.974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Ice Tank</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -862,14 +847,14 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.076</v>
+        <v>28.069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Compressor</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -883,14 +868,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.376</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fixed cost</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
+          <t>Solar PV</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -904,18 +893,14 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.326</v>
+        <v>4.512</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Fixed cost</t>
-        </is>
-      </c>
+      <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -929,7 +914,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -950,14 +935,14 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8.608000000000001</v>
+        <v>8.201000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Ice Tank</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -971,33 +956,45 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.114</v>
+        <v>3.116</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Lost load cost</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5679999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Replacement cost</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
@@ -1005,18 +1002,18 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.035</v>
+        <v>4.793</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Lost load cost</t>
+          <t>Fuel cost</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="C20" s="1" t="n">
@@ -1028,18 +1025,18 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>24.046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Replacement cost</t>
+          <t>Fuel CO2 emission</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C21" s="1" t="n">
@@ -1047,49 +1044,53 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.347</v>
+        <v>668.492</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fuel cost</t>
+          <t>RES CO2 emission</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>1</v>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fuel CO2 emission</t>
+          <t>GEN CO2 emission</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>1</v>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
@@ -1097,18 +1098,18 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>92.07599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RES CO2 emission</t>
+          <t>BESS CO2 emission</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>RES</t>
+          <t>BESS</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -1128,18 +1129,16 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>GEN CO2 emission</t>
+          <t>TOTAL CO2 emission</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
@@ -1147,63 +1146,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>BESS CO2 emission</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>BESS</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL CO2 emission</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>92.07599999999999</v>
+        <v>668.492</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
+  <mergeCells count="2">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1215,7 +1164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,12 +1211,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>Wind Turbine</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -1376,25 +1325,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.63</v>
+        <v>0.93</v>
       </c>
       <c r="C6" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>1.68</v>
       </c>
       <c r="E6" t="n">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.81</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2.36</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -1404,25 +1353,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.63</v>
+        <v>0.93</v>
       </c>
       <c r="C7" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>1.68</v>
       </c>
       <c r="E7" t="n">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.81</v>
+        <v>0.99</v>
       </c>
       <c r="H7" t="n">
-        <v>4.68</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
@@ -1432,25 +1381,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.63</v>
+        <v>0.93</v>
       </c>
       <c r="C8" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04</v>
+        <v>1.68</v>
       </c>
       <c r="E8" t="n">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.79</v>
+        <v>1.02</v>
       </c>
       <c r="H8" t="n">
-        <v>7.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -1460,25 +1409,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.63</v>
+        <v>0.93</v>
       </c>
       <c r="C9" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04</v>
+        <v>1.68</v>
       </c>
       <c r="E9" t="n">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.76</v>
+        <v>1.05</v>
       </c>
       <c r="H9" t="n">
-        <v>10.96</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="10">
@@ -1488,25 +1437,445 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.63</v>
+        <v>0.93</v>
       </c>
       <c r="C10" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04</v>
+        <v>1.68</v>
       </c>
       <c r="E10" t="n">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.74</v>
+        <v>1.06</v>
       </c>
       <c r="H10" t="n">
-        <v>14.5</v>
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Year 6</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Year 7</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Year 8</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Year 9</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Year 10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Year 11</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Year 12</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Year 13</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H18" t="n">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Year 14</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Year 15</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H20" t="n">
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Year 16</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H21" t="n">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Year 17</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H22" t="n">
+        <v>29.28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Year 18</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H23" t="n">
+        <v>32.74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Year 19</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H24" t="n">
+        <v>36.42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Year 20</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H25" t="n">
+        <v>40.32</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1553,11 +1922,6 @@
           <t>Battery usage</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank usage</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1585,11 +1949,6 @@
           <t>%</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1598,19 +1957,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.85</v>
+        <v>0.58</v>
       </c>
       <c r="C4" t="n">
-        <v>96.81999999999999</v>
+        <v>99.55</v>
       </c>
       <c r="D4" t="n">
-        <v>10.29</v>
+        <v>20.83</v>
       </c>
       <c r="E4" t="n">
-        <v>53.54</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.03</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="5">
@@ -1620,19 +1976,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.27</v>
+        <v>1.11</v>
       </c>
       <c r="C5" t="n">
-        <v>93.89</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>7.84</v>
+        <v>17.14</v>
       </c>
       <c r="E5" t="n">
-        <v>51.01</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.03</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="6">
@@ -1642,19 +1995,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.41</v>
+        <v>1.99</v>
       </c>
       <c r="C6" t="n">
-        <v>90.31</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>6.09</v>
+        <v>13.7</v>
       </c>
       <c r="E6" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.03</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="7">
@@ -1664,19 +2014,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.45</v>
+        <v>3.5</v>
       </c>
       <c r="C7" t="n">
-        <v>86.77</v>
+        <v>96.94</v>
       </c>
       <c r="D7" t="n">
-        <v>4.58</v>
+        <v>10.7</v>
       </c>
       <c r="E7" t="n">
-        <v>44.81</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.03</v>
+        <v>51.33</v>
       </c>
     </row>
     <row r="8">
@@ -1686,19 +2033,301 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.47</v>
+        <v>5.78</v>
       </c>
       <c r="C8" t="n">
-        <v>83.22</v>
+        <v>94.81</v>
       </c>
       <c r="D8" t="n">
-        <v>3.28</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>42.18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.02</v>
+        <v>49.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Year 6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>92.02</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E9" t="n">
+        <v>46.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Year 7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C10" t="n">
+        <v>88.97</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="E10" t="n">
+        <v>43.82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Year 8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="C11" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>41.01</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Year 9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="C12" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38.29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Year 10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="C13" t="n">
+        <v>79.69</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E13" t="n">
+        <v>35.59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Year 11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32.84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Year 12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Year 13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="C16" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Year 14</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="C17" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E17" t="n">
+        <v>24.93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Year 15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>36.33</v>
+      </c>
+      <c r="C18" t="n">
+        <v>64.08</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E18" t="n">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Year 16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="C19" t="n">
+        <v>61.15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20.47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Year 17</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="C20" t="n">
+        <v>58.32</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Year 18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>44.75</v>
+      </c>
+      <c r="C21" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Year 19</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="C22" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17.81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Year 20</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>49.98</v>
+      </c>
+      <c r="C23" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>18.55</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +2341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1732,19 +2361,15 @@
           <t>Renewable penetration</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Curtailment share</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Battery usage</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank usage</t>
         </is>
       </c>
     </row>
@@ -1766,17 +2391,17 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Wind Turbine</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank</t>
         </is>
       </c>
     </row>
@@ -1841,19 +2466,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.61</v>
+        <v>0.58</v>
       </c>
       <c r="C6" t="n">
-        <v>96.81999999999999</v>
+        <v>99.55</v>
       </c>
       <c r="D6" t="n">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>53.54</v>
+        <v>20.83</v>
       </c>
       <c r="F6" t="n">
-        <v>10.33</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="7">
@@ -1863,19 +2488,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.76</v>
+        <v>1.11</v>
       </c>
       <c r="C7" t="n">
-        <v>93.89</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>7.84</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>51.01</v>
+        <v>17.14</v>
       </c>
       <c r="F7" t="n">
-        <v>8.619999999999999</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="8">
@@ -1885,19 +2510,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.5</v>
+        <v>1.99</v>
       </c>
       <c r="C8" t="n">
-        <v>90.31</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>6.09</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>47.85</v>
+        <v>13.7</v>
       </c>
       <c r="F8" t="n">
-        <v>7.38</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="9">
@@ -1907,19 +2532,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.1</v>
+        <v>3.5</v>
       </c>
       <c r="C9" t="n">
-        <v>86.77</v>
+        <v>96.94</v>
       </c>
       <c r="D9" t="n">
-        <v>4.58</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>44.81</v>
+        <v>10.7</v>
       </c>
       <c r="F9" t="n">
-        <v>6.45</v>
+        <v>51.33</v>
       </c>
     </row>
     <row r="10">
@@ -1929,22 +2554,355 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.62</v>
+        <v>5.78</v>
       </c>
       <c r="C10" t="n">
-        <v>83.22</v>
+        <v>94.81</v>
       </c>
       <c r="D10" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>42.18</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>5.73</v>
+        <v>49.32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Year 6</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>92.02</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F11" t="n">
+        <v>46.68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Year 7</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C12" t="n">
+        <v>88.97</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F12" t="n">
+        <v>43.82</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Year 8</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="C13" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>41.01</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Year 9</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="C14" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>38.29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Year 10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="C15" t="n">
+        <v>79.69</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F15" t="n">
+        <v>35.59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Year 11</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>32.84</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Year 12</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="C17" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Year 13</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Year 14</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="C19" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24.93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Year 15</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>36.33</v>
+      </c>
+      <c r="C20" t="n">
+        <v>64.08</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F20" t="n">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Year 16</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="C21" t="n">
+        <v>61.15</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20.47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Year 17</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="C22" t="n">
+        <v>58.32</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Year 18</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>44.75</v>
+      </c>
+      <c r="C23" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Year 19</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="C24" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17.81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Year 20</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>49.98</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18.55</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54.18</v>
+        <v>57.98</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>187.13</v>
+        <v>191.63</v>
       </c>
     </row>
     <row r="5">
@@ -560,7 +560,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>107.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Compressor</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +641,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>131.944</v>
+        <v>193.716</v>
       </c>
     </row>
     <row r="3">
@@ -634,7 +664,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>131.944</v>
+        <v>193.716</v>
       </c>
     </row>
     <row r="4">
@@ -659,7 +689,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>87.544</v>
+        <v>111.778</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +714,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.829</v>
+        <v>45.387</v>
       </c>
     </row>
     <row r="6">
@@ -707,7 +737,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.839</v>
+        <v>36.838</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +762,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.269</v>
+        <v>-0.287</v>
       </c>
     </row>
     <row r="8">
@@ -757,7 +787,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2562</v>
+        <v>0.3196</v>
       </c>
     </row>
     <row r="9">
@@ -780,7 +810,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2562</v>
+        <v>0.3196</v>
       </c>
     </row>
     <row r="10">
@@ -805,7 +835,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>51.475</v>
+        <v>55.083</v>
       </c>
     </row>
     <row r="11">
@@ -826,7 +856,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.159000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -847,14 +877,14 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.069</v>
+        <v>28.745</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
+          <t>Ice Tank</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -868,18 +898,14 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fixed cost</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
+          <t>Compressor</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -893,14 +919,14 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.512</v>
+        <v>10.984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -914,14 +940,18 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>8.807</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fixed cost</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Solar PV</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -935,141 +965,123 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8.201000000000001</v>
+        <v>4.828</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
+          <t>Wind Turbine</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1.987</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>8.398</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>26.743</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D21" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>3.116</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Lost load cost</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>4.793</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Fuel cost</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>24.046</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Fuel CO2 emission</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
       <c r="E21" t="n">
-        <v>668.492</v>
+        <v>3.431</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RES CO2 emission</t>
+          <t>Lost load cost</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1079,57 +1091,53 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>GEN CO2 emission</t>
+          <t>Replacement cost</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4.856</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BESS CO2 emission</t>
+          <t>Fuel cost</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>BESS</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>31.982</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>TOTAL CO2 emission</t>
+          <t>Fuel CO2 emission</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1146,13 +1154,113 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>668.492</v>
+        <v>734.1130000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RES CO2 emission</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GEN CO2 emission</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>BESS CO2 emission</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL CO2 emission</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>734.1130000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:A13"/>
+  <mergeCells count="4">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1164,7 +1272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,17 +1290,18 @@
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Lost load cost</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Replacement cost</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fuel cost</t>
         </is>
@@ -1221,20 +1330,25 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Diesel</t>
         </is>
@@ -1266,8 +1380,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G3" s="1" t="n">
         <v>1</v>
@@ -1275,6 +1391,9 @@
       <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1317,6 +1436,11 @@
           <t>kUSD</t>
         </is>
       </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1325,25 +1449,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D6" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E6" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.18</v>
+      <c r="I6" t="n">
+        <v>1.98</v>
       </c>
     </row>
     <row r="7">
@@ -1353,25 +1480,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D7" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E7" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.99</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.37</v>
+      <c r="I7" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row r="8">
@@ -1381,25 +1511,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D8" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E8" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7</v>
+        <v>1.03</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="9">
@@ -1409,25 +1542,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D9" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E9" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.05</v>
       </c>
-      <c r="H9" t="n">
-        <v>1.29</v>
+      <c r="I9" t="n">
+        <v>3.04</v>
       </c>
     </row>
     <row r="10">
@@ -1437,25 +1573,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D10" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E10" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.24</v>
+        <v>1.07</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="11">
@@ -1465,25 +1604,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D11" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E11" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G11" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>1.07</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.11</v>
       </c>
     </row>
     <row r="12">
@@ -1493,25 +1635,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D12" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E12" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>5.08</v>
+        <v>1.06</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.56</v>
       </c>
     </row>
     <row r="13">
@@ -1521,25 +1666,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D13" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E13" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G13" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.73</v>
+        <v>1.04</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8.19</v>
       </c>
     </row>
     <row r="14">
@@ -1549,25 +1697,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D14" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E14" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.51</v>
+        <v>1.02</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1577,25 +1728,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D15" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E15" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>10.44</v>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11.87</v>
       </c>
     </row>
     <row r="16">
@@ -1605,25 +1759,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D16" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E16" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.58</v>
+        <v>0.97</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13.98</v>
       </c>
     </row>
     <row r="17">
@@ -1633,25 +1790,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D17" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E17" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>14.91</v>
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16.25</v>
       </c>
     </row>
     <row r="18">
@@ -1661,25 +1821,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D18" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E18" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>17.41</v>
+        <v>0.91</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.71</v>
       </c>
     </row>
     <row r="19">
@@ -1689,25 +1852,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D19" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E19" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>20.09</v>
+        <v>0.87</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21.36</v>
       </c>
     </row>
     <row r="20">
@@ -1717,25 +1883,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D20" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E20" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G20" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>22.96</v>
+        <v>0.84</v>
+      </c>
+      <c r="I20" t="n">
+        <v>24.2</v>
       </c>
     </row>
     <row r="21">
@@ -1745,25 +1914,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D21" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E21" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>26.02</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="22">
@@ -1773,25 +1945,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D22" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E22" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>29.28</v>
+        <v>0.79</v>
+      </c>
+      <c r="I22" t="n">
+        <v>30.49</v>
       </c>
     </row>
     <row r="23">
@@ -1801,25 +1976,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D23" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E23" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>32.74</v>
+        <v>0.79</v>
+      </c>
+      <c r="I23" t="n">
+        <v>33.94</v>
       </c>
     </row>
     <row r="24">
@@ -1829,25 +2007,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D24" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E24" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G24" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>36.42</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I24" t="n">
+        <v>37.59</v>
       </c>
     </row>
     <row r="25">
@@ -1857,30 +2038,33 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D25" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E25" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G25" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>40.32</v>
+        <v>0.87</v>
+      </c>
+      <c r="I25" t="n">
+        <v>41.47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1892,7 +2076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1922,6 +2106,11 @@
           <t>Battery usage</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank usage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1949,6 +2138,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1957,17 +2151,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.58</v>
+        <v>6.2</v>
       </c>
       <c r="C4" t="n">
-        <v>99.55</v>
+        <v>95.97</v>
       </c>
       <c r="D4" t="n">
-        <v>20.83</v>
+        <v>18.96</v>
       </c>
       <c r="E4" t="n">
         <v>53.45</v>
       </c>
+      <c r="F4" t="n">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1976,16 +2173,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.11</v>
+        <v>6.46</v>
       </c>
       <c r="C5" t="n">
-        <v>99.09999999999999</v>
+        <v>95.61</v>
       </c>
       <c r="D5" t="n">
-        <v>17.14</v>
+        <v>15.86</v>
       </c>
       <c r="E5" t="n">
-        <v>53.18</v>
+        <v>53.21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14.79</v>
       </c>
     </row>
     <row r="6">
@@ -1995,16 +2195,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.99</v>
+        <v>7.02</v>
       </c>
       <c r="C6" t="n">
-        <v>98.31999999999999</v>
+        <v>95.02</v>
       </c>
       <c r="D6" t="n">
-        <v>13.7</v>
+        <v>12.94</v>
       </c>
       <c r="E6" t="n">
-        <v>52.56</v>
+        <v>52.69</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="7">
@@ -2014,16 +2217,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.5</v>
+        <v>8.23</v>
       </c>
       <c r="C7" t="n">
-        <v>96.94</v>
+        <v>93.94</v>
       </c>
       <c r="D7" t="n">
-        <v>10.7</v>
+        <v>10.38</v>
       </c>
       <c r="E7" t="n">
-        <v>51.33</v>
+        <v>51.54</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14.81</v>
       </c>
     </row>
     <row r="8">
@@ -2033,16 +2239,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.78</v>
+        <v>10.08</v>
       </c>
       <c r="C8" t="n">
-        <v>94.81</v>
+        <v>92.33</v>
       </c>
       <c r="D8" t="n">
-        <v>8.369999999999999</v>
+        <v>8.26</v>
       </c>
       <c r="E8" t="n">
-        <v>49.32</v>
+        <v>49.77</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.82</v>
       </c>
     </row>
     <row r="9">
@@ -2052,16 +2261,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.720000000000001</v>
+        <v>12.54</v>
       </c>
       <c r="C9" t="n">
-        <v>92.02</v>
+        <v>90.20999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>6.73</v>
+        <v>6.66</v>
       </c>
       <c r="E9" t="n">
-        <v>46.68</v>
+        <v>47.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.82</v>
       </c>
     </row>
     <row r="10">
@@ -2071,16 +2283,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.88</v>
+        <v>15.35</v>
       </c>
       <c r="C10" t="n">
-        <v>88.97</v>
+        <v>87.77</v>
       </c>
       <c r="D10" t="n">
-        <v>5.42</v>
+        <v>5.41</v>
       </c>
       <c r="E10" t="n">
-        <v>43.82</v>
+        <v>44.71</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14.83</v>
       </c>
     </row>
     <row r="11">
@@ -2090,16 +2305,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.99</v>
+        <v>18.24</v>
       </c>
       <c r="C11" t="n">
-        <v>85.89</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>4.24</v>
+        <v>4.35</v>
       </c>
       <c r="E11" t="n">
-        <v>41.01</v>
+        <v>41.95</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14.83</v>
       </c>
     </row>
     <row r="12">
@@ -2109,16 +2327,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.04</v>
+        <v>21.12</v>
       </c>
       <c r="C12" t="n">
-        <v>82.8</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>3.17</v>
+        <v>3.41</v>
       </c>
       <c r="E12" t="n">
-        <v>38.29</v>
+        <v>39.22</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14.83</v>
       </c>
     </row>
     <row r="13">
@@ -2128,16 +2349,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.08</v>
+        <v>23.98</v>
       </c>
       <c r="C13" t="n">
-        <v>79.69</v>
+        <v>79.86</v>
       </c>
       <c r="D13" t="n">
-        <v>2.26</v>
+        <v>2.57</v>
       </c>
       <c r="E13" t="n">
-        <v>35.59</v>
+        <v>36.55</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14.83</v>
       </c>
     </row>
     <row r="14">
@@ -2147,16 +2371,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.2</v>
+        <v>26.88</v>
       </c>
       <c r="C14" t="n">
-        <v>76.5</v>
+        <v>77.12</v>
       </c>
       <c r="D14" t="n">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="E14" t="n">
-        <v>32.84</v>
+        <v>33.88</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14.82</v>
       </c>
     </row>
     <row r="15">
@@ -2166,16 +2393,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.31</v>
+        <v>29.76</v>
       </c>
       <c r="C15" t="n">
-        <v>73.31999999999999</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
       <c r="E15" t="n">
-        <v>30.13</v>
+        <v>31.24</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14.82</v>
       </c>
     </row>
     <row r="16">
@@ -2185,16 +2415,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.37</v>
+        <v>32.65</v>
       </c>
       <c r="C16" t="n">
-        <v>70.17</v>
+        <v>71.56</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E16" t="n">
-        <v>27.49</v>
+        <v>28.65</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14.81</v>
       </c>
     </row>
     <row r="17">
@@ -2204,16 +2437,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.38</v>
+        <v>35.48</v>
       </c>
       <c r="C17" t="n">
-        <v>67.09</v>
+        <v>68.8</v>
       </c>
       <c r="D17" t="n">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="E17" t="n">
-        <v>24.93</v>
+        <v>26.23</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="18">
@@ -2223,16 +2459,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.33</v>
+        <v>38.29</v>
       </c>
       <c r="C18" t="n">
-        <v>64.08</v>
+        <v>66.06</v>
       </c>
       <c r="D18" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="E18" t="n">
-        <v>22.54</v>
+        <v>24.03</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14.79</v>
       </c>
     </row>
     <row r="19">
@@ -2242,16 +2481,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.21</v>
+        <v>41.05</v>
       </c>
       <c r="C19" t="n">
-        <v>61.15</v>
+        <v>63.35</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="E19" t="n">
-        <v>20.47</v>
+        <v>22.12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14.78</v>
       </c>
     </row>
     <row r="20">
@@ -2261,16 +2503,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.02</v>
+        <v>43.76</v>
       </c>
       <c r="C20" t="n">
-        <v>58.32</v>
+        <v>60.7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="E20" t="n">
-        <v>18.88</v>
+        <v>20.62</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14.78</v>
       </c>
     </row>
     <row r="21">
@@ -2280,16 +2525,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.75</v>
+        <v>46.38</v>
       </c>
       <c r="C21" t="n">
-        <v>55.58</v>
+        <v>58.12</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E21" t="n">
-        <v>17.89</v>
+        <v>19.55</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14.77</v>
       </c>
     </row>
     <row r="22">
@@ -2299,16 +2547,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.41</v>
+        <v>48.94</v>
       </c>
       <c r="C22" t="n">
-        <v>52.94</v>
+        <v>55.61</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>17.81</v>
+        <v>19.17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.76</v>
       </c>
     </row>
     <row r="23">
@@ -2318,16 +2569,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.98</v>
+        <v>51.41</v>
       </c>
       <c r="C23" t="n">
-        <v>50.4</v>
+        <v>53.18</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E23" t="n">
-        <v>18.55</v>
+        <v>19.41</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14.73</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2372,6 +2626,11 @@
           <t>Battery usage</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank usage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2404,6 +2663,11 @@
           <t>Battery bank</t>
         </is>
       </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2426,6 +2690,9 @@
       <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2458,6 +2725,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2466,20 +2738,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.58</v>
+        <v>5.06</v>
       </c>
       <c r="C6" t="n">
-        <v>99.55</v>
+        <v>89.33</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6.64</v>
       </c>
       <c r="E6" t="n">
-        <v>20.83</v>
+        <v>18.96</v>
       </c>
       <c r="F6" t="n">
         <v>53.45</v>
       </c>
+      <c r="G6" t="n">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2488,19 +2763,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.11</v>
+        <v>5.32</v>
       </c>
       <c r="C7" t="n">
-        <v>99.09999999999999</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.62</v>
       </c>
       <c r="E7" t="n">
-        <v>17.14</v>
+        <v>15.86</v>
       </c>
       <c r="F7" t="n">
-        <v>53.18</v>
+        <v>53.21</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.79</v>
       </c>
     </row>
     <row r="8">
@@ -2510,19 +2788,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.99</v>
+        <v>5.83</v>
       </c>
       <c r="C8" t="n">
-        <v>98.31999999999999</v>
+        <v>88.44</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.58</v>
       </c>
       <c r="E8" t="n">
-        <v>13.7</v>
+        <v>12.94</v>
       </c>
       <c r="F8" t="n">
-        <v>52.56</v>
+        <v>52.69</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="9">
@@ -2532,19 +2813,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.5</v>
+        <v>6.89</v>
       </c>
       <c r="C9" t="n">
-        <v>96.94</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="E9" t="n">
-        <v>10.7</v>
+        <v>10.38</v>
       </c>
       <c r="F9" t="n">
-        <v>51.33</v>
+        <v>51.54</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.81</v>
       </c>
     </row>
     <row r="10">
@@ -2554,19 +2838,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.78</v>
+        <v>8.5</v>
       </c>
       <c r="C10" t="n">
-        <v>94.81</v>
+        <v>85.94</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.39</v>
       </c>
       <c r="E10" t="n">
-        <v>8.369999999999999</v>
+        <v>8.26</v>
       </c>
       <c r="F10" t="n">
-        <v>49.32</v>
+        <v>49.77</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14.82</v>
       </c>
     </row>
     <row r="11">
@@ -2576,19 +2863,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.720000000000001</v>
+        <v>10.66</v>
       </c>
       <c r="C11" t="n">
-        <v>92.02</v>
+        <v>83.97</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.24</v>
       </c>
       <c r="E11" t="n">
-        <v>6.73</v>
+        <v>6.66</v>
       </c>
       <c r="F11" t="n">
-        <v>46.68</v>
+        <v>47.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14.82</v>
       </c>
     </row>
     <row r="12">
@@ -2598,19 +2888,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.88</v>
+        <v>13.14</v>
       </c>
       <c r="C12" t="n">
-        <v>88.97</v>
+        <v>81.69</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="E12" t="n">
-        <v>5.42</v>
+        <v>5.41</v>
       </c>
       <c r="F12" t="n">
-        <v>43.82</v>
+        <v>44.71</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14.83</v>
       </c>
     </row>
     <row r="13">
@@ -2620,19 +2913,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.99</v>
+        <v>15.73</v>
       </c>
       <c r="C13" t="n">
-        <v>85.89</v>
+        <v>79.28</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="E13" t="n">
-        <v>4.24</v>
+        <v>4.35</v>
       </c>
       <c r="F13" t="n">
-        <v>41.01</v>
+        <v>41.95</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14.83</v>
       </c>
     </row>
     <row r="14">
@@ -2642,19 +2938,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.04</v>
+        <v>18.33</v>
       </c>
       <c r="C14" t="n">
-        <v>82.8</v>
+        <v>76.83</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.71</v>
       </c>
       <c r="E14" t="n">
-        <v>3.17</v>
+        <v>3.41</v>
       </c>
       <c r="F14" t="n">
-        <v>38.29</v>
+        <v>39.22</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14.83</v>
       </c>
     </row>
     <row r="15">
@@ -2664,19 +2963,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.08</v>
+        <v>20.94</v>
       </c>
       <c r="C15" t="n">
-        <v>79.69</v>
+        <v>74.34</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>5.53</v>
       </c>
       <c r="E15" t="n">
-        <v>2.26</v>
+        <v>2.57</v>
       </c>
       <c r="F15" t="n">
-        <v>35.59</v>
+        <v>36.55</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14.83</v>
       </c>
     </row>
     <row r="16">
@@ -2686,19 +2988,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.2</v>
+        <v>23.61</v>
       </c>
       <c r="C16" t="n">
-        <v>76.5</v>
+        <v>71.78</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>5.34</v>
       </c>
       <c r="E16" t="n">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="F16" t="n">
-        <v>32.84</v>
+        <v>33.88</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14.82</v>
       </c>
     </row>
     <row r="17">
@@ -2708,19 +3013,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.31</v>
+        <v>26.3</v>
       </c>
       <c r="C17" t="n">
-        <v>73.31999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="E17" t="n">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
       <c r="F17" t="n">
-        <v>30.13</v>
+        <v>31.24</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14.82</v>
       </c>
     </row>
     <row r="18">
@@ -2730,19 +3038,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.37</v>
+        <v>29.01</v>
       </c>
       <c r="C18" t="n">
-        <v>70.17</v>
+        <v>66.61</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F18" t="n">
-        <v>27.49</v>
+        <v>28.65</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14.81</v>
       </c>
     </row>
     <row r="19">
@@ -2752,19 +3063,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.38</v>
+        <v>31.69</v>
       </c>
       <c r="C19" t="n">
-        <v>67.09</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="E19" t="n">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="F19" t="n">
-        <v>24.93</v>
+        <v>26.23</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="20">
@@ -2774,19 +3088,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.33</v>
+        <v>34.37</v>
       </c>
       <c r="C20" t="n">
-        <v>64.08</v>
+        <v>61.49</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4.57</v>
       </c>
       <c r="E20" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="F20" t="n">
-        <v>22.54</v>
+        <v>24.03</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14.79</v>
       </c>
     </row>
     <row r="21">
@@ -2796,19 +3113,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.21</v>
+        <v>37.04</v>
       </c>
       <c r="C21" t="n">
-        <v>61.15</v>
+        <v>58.97</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.39</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="F21" t="n">
-        <v>20.47</v>
+        <v>22.12</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14.78</v>
       </c>
     </row>
     <row r="22">
@@ -2818,19 +3138,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.02</v>
+        <v>39.66</v>
       </c>
       <c r="C22" t="n">
-        <v>58.32</v>
+        <v>56.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="F22" t="n">
-        <v>18.88</v>
+        <v>20.62</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14.78</v>
       </c>
     </row>
     <row r="23">
@@ -2840,19 +3163,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.75</v>
+        <v>42.23</v>
       </c>
       <c r="C23" t="n">
-        <v>55.58</v>
+        <v>54.1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F23" t="n">
-        <v>17.89</v>
+        <v>19.55</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14.77</v>
       </c>
     </row>
     <row r="24">
@@ -2862,19 +3188,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.41</v>
+        <v>44.74</v>
       </c>
       <c r="C24" t="n">
-        <v>52.94</v>
+        <v>51.76</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>17.81</v>
+        <v>19.17</v>
+      </c>
+      <c r="G24" t="n">
+        <v>14.76</v>
       </c>
     </row>
     <row r="25">
@@ -2884,19 +3213,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.98</v>
+        <v>47.2</v>
       </c>
       <c r="C25" t="n">
-        <v>50.4</v>
+        <v>49.5</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F25" t="n">
-        <v>18.55</v>
+        <v>19.41</v>
+      </c>
+      <c r="G25" t="n">
+        <v>14.73</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,11 +511,11 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57.98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -526,11 +526,11 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -541,11 +541,11 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>kWh</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>191.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -556,41 +556,11 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>107.29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Compressor</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,7 +611,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>193.716</v>
+        <v>109.013</v>
       </c>
     </row>
     <row r="3">
@@ -664,7 +634,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>193.716</v>
+        <v>109.013</v>
       </c>
     </row>
     <row r="4">
@@ -689,7 +659,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>111.778</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="5">
@@ -714,7 +684,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>45.387</v>
+        <v>3.077</v>
       </c>
     </row>
     <row r="6">
@@ -737,7 +707,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36.838</v>
+        <v>87.03700000000001</v>
       </c>
     </row>
     <row r="7">
@@ -762,7 +732,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.287</v>
+        <v>-2.302</v>
       </c>
     </row>
     <row r="8">
@@ -787,7 +757,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.3196</v>
+        <v>0.3371</v>
       </c>
     </row>
     <row r="9">
@@ -810,7 +780,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3196</v>
+        <v>0.3371</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +805,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>55.083</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="11">
@@ -856,7 +826,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8.159000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -877,14 +847,14 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Ice Tank</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -898,14 +868,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fixed cost</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Compressor</t>
+          <t>Solar PV</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -919,14 +893,14 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.984</v>
+        <v>1.298</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
+          <t>Wind Turbine</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -940,18 +914,14 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8.807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Fixed cost</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -965,14 +935,14 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -986,41 +956,45 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.987</v>
+        <v>1.779</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Lost load cost</t>
+        </is>
+      </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Replacement cost</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>8.398</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
@@ -1032,56 +1006,70 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Fuel cost</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26.743</v>
+        <v>87.03700000000001</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Fuel CO2 emission</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.431</v>
+        <v>436.604</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Lost load cost</t>
+          <t>RES CO2 emission</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>1</v>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1091,53 +1079,57 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Replacement cost</t>
+          <t>GEN CO2 emission</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>1</v>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fuel cost</t>
+          <t>BESS CO2 emission</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>1</v>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fuel CO2 emission</t>
+          <t>TOTAL CO2 emission</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1154,113 +1146,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>734.1130000000001</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>RES CO2 emission</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>GEN CO2 emission</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>BESS CO2 emission</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>BESS</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL CO2 emission</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>734.1130000000001</v>
+        <v>436.604</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="C19:C20"/>
+  <mergeCells count="2">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1272,7 +1164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,18 +1182,17 @@
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lost load cost</t>
+        </is>
+      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Lost load cost</t>
+          <t>Replacement cost</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fuel cost</t>
         </is>
@@ -1330,25 +1221,20 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Ice Tank</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
+          <t>System</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Diesel</t>
         </is>
@@ -1380,10 +1266,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>1</v>
@@ -1391,9 +1275,6 @@
       <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1436,11 +1317,6 @@
           <t>kUSD</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1449,28 +1325,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="C6" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.72</v>
+        <v>-0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.98</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="7">
@@ -1480,28 +1353,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="C7" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.72</v>
+        <v>-0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.16</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="8">
@@ -1511,28 +1381,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="C8" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.72</v>
+        <v>-0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.47</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="9">
@@ -1542,28 +1409,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.72</v>
+        <v>-0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.04</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="10">
@@ -1573,28 +1437,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="C10" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.72</v>
+        <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.91</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="11">
@@ -1604,28 +1465,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="C11" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.72</v>
+        <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.11</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="12">
@@ -1635,28 +1493,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="C12" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.72</v>
+        <v>-0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.56</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="13">
@@ -1666,28 +1521,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="C13" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.72</v>
+        <v>-0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8.19</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="14">
@@ -1697,28 +1549,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="C14" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.72</v>
+        <v>-0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9.960000000000001</v>
+        <v>21.18</v>
       </c>
     </row>
     <row r="15">
@@ -1728,343 +1577,30 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="C15" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.72</v>
+        <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11.87</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Year 11</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Year 12</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Year 13</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="I18" t="n">
-        <v>18.71</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Year 14</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="I19" t="n">
-        <v>21.36</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Year 15</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I20" t="n">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Year 16</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27.24</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Year 17</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="I22" t="n">
-        <v>30.49</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Year 18</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="I23" t="n">
-        <v>33.94</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Year 19</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I24" t="n">
-        <v>37.59</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Year 20</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="I25" t="n">
-        <v>41.47</v>
+        <v>21.86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2076,7 +1612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2106,11 +1642,6 @@
           <t>Battery usage</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank usage</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2138,11 +1669,6 @@
           <t>%</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2151,19 +1677,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.2</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>95.97</v>
+        <v>40.61</v>
       </c>
       <c r="D4" t="n">
-        <v>18.96</v>
+        <v>10.67</v>
       </c>
       <c r="E4" t="n">
-        <v>53.45</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2173,19 +1696,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.46</v>
+        <v>66.75</v>
       </c>
       <c r="C5" t="n">
-        <v>95.61</v>
+        <v>39.88</v>
       </c>
       <c r="D5" t="n">
-        <v>15.86</v>
+        <v>9.92</v>
       </c>
       <c r="E5" t="n">
-        <v>53.21</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2195,19 +1715,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.02</v>
+        <v>67.02</v>
       </c>
       <c r="C6" t="n">
-        <v>95.02</v>
+        <v>39.14</v>
       </c>
       <c r="D6" t="n">
-        <v>12.94</v>
+        <v>9.19</v>
       </c>
       <c r="E6" t="n">
-        <v>52.69</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2217,19 +1734,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.23</v>
+        <v>67.3</v>
       </c>
       <c r="C7" t="n">
-        <v>93.94</v>
+        <v>38.41</v>
       </c>
       <c r="D7" t="n">
-        <v>10.38</v>
+        <v>8.48</v>
       </c>
       <c r="E7" t="n">
-        <v>51.54</v>
-      </c>
-      <c r="F7" t="n">
-        <v>14.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2239,19 +1753,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.08</v>
+        <v>67.59</v>
       </c>
       <c r="C8" t="n">
-        <v>92.33</v>
+        <v>37.68</v>
       </c>
       <c r="D8" t="n">
-        <v>8.26</v>
+        <v>7.8</v>
       </c>
       <c r="E8" t="n">
-        <v>49.77</v>
-      </c>
-      <c r="F8" t="n">
-        <v>14.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2261,19 +1772,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.54</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>90.20999999999999</v>
+        <v>36.95</v>
       </c>
       <c r="D9" t="n">
-        <v>6.66</v>
+        <v>7.14</v>
       </c>
       <c r="E9" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>14.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2283,19 +1791,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.35</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>87.77</v>
+        <v>36.22</v>
       </c>
       <c r="D10" t="n">
-        <v>5.41</v>
+        <v>6.51</v>
       </c>
       <c r="E10" t="n">
-        <v>44.71</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2305,19 +1810,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.24</v>
+        <v>68.55</v>
       </c>
       <c r="C11" t="n">
-        <v>85.18000000000001</v>
+        <v>35.5</v>
       </c>
       <c r="D11" t="n">
-        <v>4.35</v>
+        <v>5.91</v>
       </c>
       <c r="E11" t="n">
-        <v>41.95</v>
-      </c>
-      <c r="F11" t="n">
-        <v>14.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2327,19 +1829,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.12</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>82.54000000000001</v>
+        <v>34.78</v>
       </c>
       <c r="D12" t="n">
-        <v>3.41</v>
+        <v>5.33</v>
       </c>
       <c r="E12" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="F12" t="n">
-        <v>14.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2349,239 +1848,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.98</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>79.86</v>
+        <v>34.06</v>
       </c>
       <c r="D13" t="n">
-        <v>2.57</v>
+        <v>4.79</v>
       </c>
       <c r="E13" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="F13" t="n">
-        <v>14.83</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Year 11</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="C14" t="n">
-        <v>77.12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E14" t="n">
-        <v>33.88</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Year 12</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="C15" t="n">
-        <v>74.34999999999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="E15" t="n">
-        <v>31.24</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Year 13</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>32.65</v>
-      </c>
-      <c r="C16" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="E16" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14.81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Year 14</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>35.48</v>
-      </c>
-      <c r="C17" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E17" t="n">
-        <v>26.23</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Year 15</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>38.29</v>
-      </c>
-      <c r="C18" t="n">
-        <v>66.06</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E18" t="n">
-        <v>24.03</v>
-      </c>
-      <c r="F18" t="n">
-        <v>14.79</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Year 16</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>41.05</v>
-      </c>
-      <c r="C19" t="n">
-        <v>63.35</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E19" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14.78</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Year 17</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>43.76</v>
-      </c>
-      <c r="C20" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E20" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="F20" t="n">
-        <v>14.78</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Year 18</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>46.38</v>
-      </c>
-      <c r="C21" t="n">
-        <v>58.12</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F21" t="n">
-        <v>14.77</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Year 19</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>48.94</v>
-      </c>
-      <c r="C22" t="n">
-        <v>55.61</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E22" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="F22" t="n">
-        <v>14.76</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Year 20</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>51.41</v>
-      </c>
-      <c r="C23" t="n">
-        <v>53.18</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="F23" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2595,7 +1871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,11 +1902,6 @@
           <t>Battery usage</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank usage</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2663,11 +1934,6 @@
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2690,9 +1956,6 @@
       <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2725,11 +1988,6 @@
           <t>%</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2738,22 +1996,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.06</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>89.33</v>
+        <v>40.61</v>
       </c>
       <c r="D6" t="n">
-        <v>6.64</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>18.96</v>
+        <v>10.67</v>
       </c>
       <c r="F6" t="n">
-        <v>53.45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2763,22 +2018,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.32</v>
+        <v>66.75</v>
       </c>
       <c r="C7" t="n">
-        <v>88.98999999999999</v>
+        <v>39.88</v>
       </c>
       <c r="D7" t="n">
-        <v>6.62</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>15.86</v>
+        <v>9.92</v>
       </c>
       <c r="F7" t="n">
-        <v>53.21</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2788,22 +2040,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.83</v>
+        <v>67.02</v>
       </c>
       <c r="C8" t="n">
-        <v>88.44</v>
+        <v>39.14</v>
       </c>
       <c r="D8" t="n">
-        <v>6.58</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12.94</v>
+        <v>9.19</v>
       </c>
       <c r="F8" t="n">
-        <v>52.69</v>
-      </c>
-      <c r="G8" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2813,22 +2062,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.89</v>
+        <v>67.3</v>
       </c>
       <c r="C9" t="n">
-        <v>87.43000000000001</v>
+        <v>38.41</v>
       </c>
       <c r="D9" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>10.38</v>
+        <v>8.48</v>
       </c>
       <c r="F9" t="n">
-        <v>51.54</v>
-      </c>
-      <c r="G9" t="n">
-        <v>14.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2838,22 +2084,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.5</v>
+        <v>67.59</v>
       </c>
       <c r="C10" t="n">
-        <v>85.94</v>
+        <v>37.68</v>
       </c>
       <c r="D10" t="n">
-        <v>6.39</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.26</v>
+        <v>7.8</v>
       </c>
       <c r="F10" t="n">
-        <v>49.77</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2863,22 +2106,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.66</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>83.97</v>
+        <v>36.95</v>
       </c>
       <c r="D11" t="n">
-        <v>6.24</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.66</v>
+        <v>7.14</v>
       </c>
       <c r="F11" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>14.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2888,22 +2128,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.14</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>81.69</v>
+        <v>36.22</v>
       </c>
       <c r="D12" t="n">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>5.41</v>
+        <v>6.51</v>
       </c>
       <c r="F12" t="n">
-        <v>44.71</v>
-      </c>
-      <c r="G12" t="n">
-        <v>14.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2913,22 +2150,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.73</v>
+        <v>68.55</v>
       </c>
       <c r="C13" t="n">
-        <v>79.28</v>
+        <v>35.5</v>
       </c>
       <c r="D13" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4.35</v>
+        <v>5.91</v>
       </c>
       <c r="F13" t="n">
-        <v>41.95</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2938,22 +2172,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.33</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>76.83</v>
+        <v>34.78</v>
       </c>
       <c r="D14" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.41</v>
+        <v>5.33</v>
       </c>
       <c r="F14" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2963,272 +2194,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.94</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>74.34</v>
+        <v>34.06</v>
       </c>
       <c r="D15" t="n">
-        <v>5.53</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.57</v>
+        <v>4.79</v>
       </c>
       <c r="F15" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14.83</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Year 11</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>23.61</v>
-      </c>
-      <c r="C16" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F16" t="n">
-        <v>33.88</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Year 12</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F17" t="n">
-        <v>31.24</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Year 13</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C18" t="n">
-        <v>66.61</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="F18" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14.81</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Year 14</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="C19" t="n">
-        <v>64.04000000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>26.23</v>
-      </c>
-      <c r="G19" t="n">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Year 15</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>34.37</v>
-      </c>
-      <c r="C20" t="n">
-        <v>61.49</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F20" t="n">
-        <v>24.03</v>
-      </c>
-      <c r="G20" t="n">
-        <v>14.79</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Year 16</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>37.04</v>
-      </c>
-      <c r="C21" t="n">
-        <v>58.97</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F21" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="G21" t="n">
-        <v>14.78</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Year 17</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="C22" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F22" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="G22" t="n">
-        <v>14.78</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Year 18</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>42.23</v>
-      </c>
-      <c r="C23" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="G23" t="n">
-        <v>14.77</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Year 19</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>44.74</v>
-      </c>
-      <c r="C24" t="n">
-        <v>51.76</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F24" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="G24" t="n">
-        <v>14.76</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Year 20</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F25" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="G25" t="n">
-        <v>14.73</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,11 +511,11 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>172.82</v>
       </c>
     </row>
     <row r="3">
@@ -526,11 +526,11 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>803.13</v>
       </c>
     </row>
     <row r="4">
@@ -541,11 +541,11 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>kWh</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>130.16</v>
       </c>
     </row>
     <row r="5">
@@ -556,11 +556,41 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2122.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Compressor</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20.55</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +641,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>109.013</v>
+        <v>1949.289</v>
       </c>
     </row>
     <row r="3">
@@ -634,7 +664,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>109.013</v>
+        <v>1949.289</v>
       </c>
     </row>
     <row r="4">
@@ -659,7 +689,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.2</v>
+        <v>1738.652</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +714,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.077</v>
+        <v>389.584</v>
       </c>
     </row>
     <row r="6">
@@ -707,7 +737,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>87.03700000000001</v>
+        <v>4.941</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +762,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-2.302</v>
+        <v>-183.887</v>
       </c>
     </row>
     <row r="8">
@@ -757,7 +787,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.3371</v>
+        <v>2.8973</v>
       </c>
     </row>
     <row r="9">
@@ -780,7 +810,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3371</v>
+        <v>2.8973</v>
       </c>
     </row>
     <row r="10">
@@ -805,7 +835,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15.2</v>
+        <v>164.177</v>
       </c>
     </row>
     <row r="11">
@@ -826,7 +856,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1525.948</v>
       </c>
     </row>
     <row r="12">
@@ -847,14 +877,14 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>42.953</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
+          <t>Ice Tank</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -868,18 +898,14 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fixed cost</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
+          <t>Compressor</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -893,14 +919,14 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.298</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -914,14 +940,18 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3.594</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fixed cost</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Solar PV</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -935,141 +965,123 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14.021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
+          <t>Wind Turbine</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>362.001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>12.228</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1.779</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Lost load cost</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Fuel cost</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>87.03700000000001</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Fuel CO2 emission</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>436.604</v>
+        <v>1.066</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RES CO2 emission</t>
+          <t>Lost load cost</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1079,57 +1091,53 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>GEN CO2 emission</t>
+          <t>Replacement cost</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Battery bank</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.048</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BESS CO2 emission</t>
+          <t>Fuel cost</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>BESS</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>kUSD</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3.893</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>TOTAL CO2 emission</t>
+          <t>Fuel CO2 emission</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1146,13 +1154,113 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>436.604</v>
+        <v>18.972</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RES CO2 emission</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GEN CO2 emission</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>BESS CO2 emission</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL CO2 emission</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>18.972</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:A13"/>
+  <mergeCells count="4">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1164,7 +1272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,17 +1290,18 @@
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Lost load cost</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Replacement cost</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fuel cost</t>
         </is>
@@ -1221,20 +1330,25 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>Diesel Genset 1</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Diesel</t>
         </is>
@@ -1266,8 +1380,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G3" s="1" t="n">
         <v>1</v>
@@ -1275,6 +1391,9 @@
       <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1317,6 +1436,11 @@
           <t>kUSD</t>
         </is>
       </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1325,25 +1449,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.27</v>
+        <v>2.96</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>76.3</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>2.58</v>
       </c>
       <c r="E6" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>16.51</v>
+        <v>0.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
@@ -1353,25 +1480,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.27</v>
+        <v>2.96</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>76.3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>2.58</v>
       </c>
       <c r="E7" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.03</v>
+        <v>0.22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="8">
@@ -1381,25 +1511,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.27</v>
+        <v>2.96</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>76.3</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>2.58</v>
       </c>
       <c r="E8" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>17.56</v>
+        <v>0.21</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="9">
@@ -1409,25 +1542,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.27</v>
+        <v>2.96</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>76.3</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>2.58</v>
       </c>
       <c r="E9" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>18.11</v>
+        <v>0.22</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="10">
@@ -1437,25 +1573,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.27</v>
+        <v>2.96</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>76.3</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>2.58</v>
       </c>
       <c r="E10" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18.68</v>
+        <v>0.22</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="11">
@@ -1465,25 +1604,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.27</v>
+        <v>2.96</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>76.3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>2.58</v>
       </c>
       <c r="E11" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>19.27</v>
+        <v>0.23</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="12">
@@ -1493,25 +1635,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.27</v>
+        <v>2.96</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>76.3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>2.58</v>
       </c>
       <c r="E12" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>19.88</v>
+        <v>0.23</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="13">
@@ -1521,25 +1666,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.27</v>
+        <v>2.96</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>76.3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>2.58</v>
       </c>
       <c r="E13" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20.52</v>
+        <v>0.24</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="14">
@@ -1549,25 +1697,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.27</v>
+        <v>2.96</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>76.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>2.58</v>
       </c>
       <c r="E14" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>21.18</v>
+        <v>0.25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="15">
@@ -1577,30 +1728,33 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.27</v>
+        <v>2.96</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>76.3</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>2.58</v>
       </c>
       <c r="E15" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>21.86</v>
+        <v>0.25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1612,7 +1766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1642,6 +1796,11 @@
           <t>Battery usage</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank usage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1669,6 +1828,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1677,16 +1841,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.48999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="C4" t="n">
-        <v>40.61</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>10.67</v>
+        <v>84.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>16.54</v>
+      </c>
+      <c r="F4" t="n">
+        <v>166.9</v>
       </c>
     </row>
     <row r="5">
@@ -1696,16 +1863,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66.75</v>
+        <v>6.18</v>
       </c>
       <c r="C5" t="n">
-        <v>39.88</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.92</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.01</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.33</v>
       </c>
     </row>
     <row r="6">
@@ -1715,16 +1885,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.02</v>
+        <v>2.18</v>
       </c>
       <c r="C6" t="n">
-        <v>39.14</v>
+        <v>99.83</v>
       </c>
       <c r="D6" t="n">
-        <v>9.19</v>
+        <v>84.11</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>16.53</v>
+      </c>
+      <c r="F6" t="n">
+        <v>167.39</v>
       </c>
     </row>
     <row r="7">
@@ -1734,16 +1907,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.3</v>
+        <v>2.32</v>
       </c>
       <c r="C7" t="n">
-        <v>38.41</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>8.48</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>16.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>167.3</v>
       </c>
     </row>
     <row r="8">
@@ -1753,16 +1929,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.59</v>
+        <v>2.42</v>
       </c>
       <c r="C8" t="n">
-        <v>37.68</v>
+        <v>99.81</v>
       </c>
       <c r="D8" t="n">
-        <v>7.8</v>
+        <v>83.69</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>16.48</v>
+      </c>
+      <c r="F8" t="n">
+        <v>167.28</v>
       </c>
     </row>
     <row r="9">
@@ -1772,16 +1951,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67.90000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="C9" t="n">
-        <v>36.95</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>7.14</v>
+        <v>83.48</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>16.52</v>
+      </c>
+      <c r="F9" t="n">
+        <v>167.33</v>
       </c>
     </row>
     <row r="10">
@@ -1791,16 +1973,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.20999999999999</v>
+        <v>2.74</v>
       </c>
       <c r="C10" t="n">
-        <v>36.22</v>
+        <v>99.77</v>
       </c>
       <c r="D10" t="n">
-        <v>6.51</v>
+        <v>83.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>16.49</v>
+      </c>
+      <c r="F10" t="n">
+        <v>166.99</v>
       </c>
     </row>
     <row r="11">
@@ -1810,16 +1995,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.55</v>
+        <v>2.92</v>
       </c>
       <c r="C11" t="n">
-        <v>35.5</v>
+        <v>99.75</v>
       </c>
       <c r="D11" t="n">
-        <v>5.91</v>
+        <v>83.03</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>16.45</v>
+      </c>
+      <c r="F11" t="n">
+        <v>167.44</v>
       </c>
     </row>
     <row r="12">
@@ -1829,16 +2017,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.90000000000001</v>
+        <v>3.01</v>
       </c>
       <c r="C12" t="n">
-        <v>34.78</v>
+        <v>99.73</v>
       </c>
       <c r="D12" t="n">
-        <v>5.33</v>
+        <v>82.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>16.44</v>
+      </c>
+      <c r="F12" t="n">
+        <v>167.27</v>
       </c>
     </row>
     <row r="13">
@@ -1848,16 +2039,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.26000000000001</v>
+        <v>3.17</v>
       </c>
       <c r="C13" t="n">
-        <v>34.06</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>4.79</v>
+        <v>82.56</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.43</v>
+      </c>
+      <c r="F13" t="n">
+        <v>167.4</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +2065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1902,6 +2096,11 @@
           <t>Battery usage</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank usage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1934,6 +2133,11 @@
           <t>Battery bank</t>
         </is>
       </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Ice Tank</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1956,6 +2160,9 @@
       <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1988,6 +2195,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1996,19 +2208,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.48999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C6" t="n">
-        <v>40.61</v>
+        <v>35.42</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>10.67</v>
+        <v>84.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>16.54</v>
+      </c>
+      <c r="G6" t="n">
+        <v>166.9</v>
       </c>
     </row>
     <row r="7">
@@ -2018,19 +2233,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.75</v>
+        <v>2.53</v>
       </c>
       <c r="C7" t="n">
-        <v>39.88</v>
+        <v>35.31</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>64.23</v>
       </c>
       <c r="E7" t="n">
-        <v>9.92</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>18.01</v>
+      </c>
+      <c r="G7" t="n">
+        <v>99.33</v>
       </c>
     </row>
     <row r="8">
@@ -2040,19 +2258,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.02</v>
+        <v>1.06</v>
       </c>
       <c r="C8" t="n">
-        <v>39.14</v>
+        <v>35.41</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>64.42</v>
       </c>
       <c r="E8" t="n">
-        <v>9.19</v>
+        <v>84.11</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>16.53</v>
+      </c>
+      <c r="G8" t="n">
+        <v>167.39</v>
       </c>
     </row>
     <row r="9">
@@ -2062,19 +2283,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67.3</v>
+        <v>1.14</v>
       </c>
       <c r="C9" t="n">
-        <v>38.41</v>
+        <v>35.41</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>64.41</v>
       </c>
       <c r="E9" t="n">
-        <v>8.48</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>16.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>167.3</v>
       </c>
     </row>
     <row r="10">
@@ -2084,19 +2308,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.59</v>
+        <v>1.2</v>
       </c>
       <c r="C10" t="n">
-        <v>37.68</v>
+        <v>35.4</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>7.8</v>
+        <v>83.69</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>16.48</v>
+      </c>
+      <c r="G10" t="n">
+        <v>167.28</v>
       </c>
     </row>
     <row r="11">
@@ -2106,19 +2333,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67.90000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="C11" t="n">
-        <v>36.95</v>
+        <v>35.4</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>64.39</v>
       </c>
       <c r="E11" t="n">
-        <v>7.14</v>
+        <v>83.48</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>16.52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>167.33</v>
       </c>
     </row>
     <row r="12">
@@ -2128,19 +2358,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.20999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="C12" t="n">
-        <v>36.22</v>
+        <v>35.39</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>64.38</v>
       </c>
       <c r="E12" t="n">
-        <v>6.51</v>
+        <v>83.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>16.49</v>
+      </c>
+      <c r="G12" t="n">
+        <v>166.99</v>
       </c>
     </row>
     <row r="13">
@@ -2150,19 +2383,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.55</v>
+        <v>1.51</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5</v>
+        <v>35.38</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>64.36</v>
       </c>
       <c r="E13" t="n">
-        <v>5.91</v>
+        <v>83.03</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>16.45</v>
+      </c>
+      <c r="G13" t="n">
+        <v>167.44</v>
       </c>
     </row>
     <row r="14">
@@ -2172,19 +2408,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.90000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="C14" t="n">
-        <v>34.78</v>
+        <v>35.38</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.33</v>
+        <v>82.8</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>16.44</v>
+      </c>
+      <c r="G14" t="n">
+        <v>167.27</v>
       </c>
     </row>
     <row r="15">
@@ -2194,19 +2433,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69.26000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="C15" t="n">
-        <v>34.06</v>
+        <v>35.37</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>64.34</v>
       </c>
       <c r="E15" t="n">
-        <v>4.79</v>
+        <v>82.56</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>16.43</v>
+      </c>
+      <c r="G15" t="n">
+        <v>167.4</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,43 +515,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>172.82</v>
+        <v>62.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>kWh</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>803.13</v>
+        <v>169.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>kWh</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>130.16</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
+          <t>Compressor</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -560,37 +560,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.97</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2122.84</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Compressor</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20.55</v>
+        <v>10.3</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,7 +611,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1949.289</v>
+        <v>209.433</v>
       </c>
     </row>
     <row r="3">
@@ -664,7 +634,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1949.289</v>
+        <v>209.433</v>
       </c>
     </row>
     <row r="4">
@@ -689,7 +659,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1738.652</v>
+        <v>118.271</v>
       </c>
     </row>
     <row r="5">
@@ -714,7 +684,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>389.584</v>
+        <v>26.509</v>
       </c>
     </row>
     <row r="6">
@@ -737,7 +707,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.941</v>
+        <v>64.65300000000001</v>
       </c>
     </row>
     <row r="7">
@@ -762,7 +732,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-183.887</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -787,7 +757,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.8973</v>
+        <v>0.3327</v>
       </c>
     </row>
     <row r="9">
@@ -810,7 +780,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.8973</v>
+        <v>0.3327</v>
       </c>
     </row>
     <row r="10">
@@ -835,14 +805,14 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>164.177</v>
+        <v>59.272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -856,14 +826,14 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1525.948</v>
+        <v>55.931</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
+          <t>Compressor</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -877,14 +847,14 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.953</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Ice Tank</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -898,14 +868,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.849</v>
+        <v>2.501</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fixed cost</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Compressor</t>
+          <t>Solar PV</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -919,14 +893,14 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.13</v>
+        <v>6.161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -940,18 +914,14 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.594</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Fixed cost</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Solar PV</t>
+          <t>Ice Tank</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -965,14 +935,14 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14.021</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Diesel Genset 1</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -986,102 +956,120 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>362.001</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Lost load cost</t>
+        </is>
+      </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>kUSD</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Replacement cost</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>12.228</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="E19" t="n">
+        <v>4.363</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Fuel cost</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
         <is>
           <t>kUSD</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
       <c r="E20" t="n">
-        <v>0.107</v>
+        <v>60.29</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Fuel CO2 emission</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Diesel Genset 1</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.066</v>
+        <v>516.596</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Lost load cost</t>
+          <t>RES CO2 emission</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>1</v>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1091,53 +1079,57 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Replacement cost</t>
+          <t>GEN CO2 emission</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>1</v>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fuel cost</t>
+          <t>BESS CO2 emission</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>1</v>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>kUSD</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fuel CO2 emission</t>
+          <t>TOTAL CO2 emission</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1154,113 +1146,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18.972</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>RES CO2 emission</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>GEN CO2 emission</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>BESS CO2 emission</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>BESS</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL CO2 emission</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>ton</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>18.972</v>
+        <v>516.596</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="C19:C20"/>
+  <mergeCells count="2">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1272,7 +1164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,19 +1181,17 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lost load cost</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Replacement cost</t>
+        </is>
+      </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Lost load cost</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Replacement cost</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fuel cost</t>
         </is>
@@ -1320,35 +1210,25 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>Battery bank</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Diesel Genset 1</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>Battery bank</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Genset 1</t>
-        </is>
-      </c>
       <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Diesel</t>
         </is>
@@ -1375,25 +1255,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1431,16 +1301,6 @@
           <t>kUSD</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>kUSD</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1449,28 +1309,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.96</v>
+        <v>1.07</v>
       </c>
       <c r="C6" t="n">
-        <v>76.3</v>
+        <v>3.36</v>
       </c>
       <c r="D6" t="n">
-        <v>2.58</v>
+        <v>0.16</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.22</v>
+        <v>0.76</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.52</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="7">
@@ -1480,28 +1334,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.96</v>
+        <v>1.07</v>
       </c>
       <c r="C7" t="n">
-        <v>76.3</v>
+        <v>3.36</v>
       </c>
       <c r="D7" t="n">
-        <v>2.58</v>
+        <v>0.16</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.58</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="8">
@@ -1511,28 +1359,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.96</v>
+        <v>1.07</v>
       </c>
       <c r="C8" t="n">
-        <v>76.3</v>
+        <v>3.36</v>
       </c>
       <c r="D8" t="n">
-        <v>2.58</v>
+        <v>0.16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.22</v>
+        <v>0.76</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.57</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="9">
@@ -1542,28 +1384,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.96</v>
+        <v>1.07</v>
       </c>
       <c r="C9" t="n">
-        <v>76.3</v>
+        <v>3.36</v>
       </c>
       <c r="D9" t="n">
-        <v>2.58</v>
+        <v>0.16</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.22</v>
+        <v>0.76</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.63</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="10">
@@ -1573,28 +1409,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.96</v>
+        <v>1.07</v>
       </c>
       <c r="C10" t="n">
-        <v>76.3</v>
+        <v>3.36</v>
       </c>
       <c r="D10" t="n">
-        <v>2.58</v>
+        <v>0.16</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.22</v>
+        <v>0.76</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.67</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1604,28 +1434,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.96</v>
+        <v>1.07</v>
       </c>
       <c r="C11" t="n">
-        <v>76.3</v>
+        <v>3.36</v>
       </c>
       <c r="D11" t="n">
-        <v>2.58</v>
+        <v>0.16</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.22</v>
+        <v>0.76</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.71</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="12">
@@ -1635,28 +1459,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.96</v>
+        <v>1.07</v>
       </c>
       <c r="C12" t="n">
-        <v>76.3</v>
+        <v>3.36</v>
       </c>
       <c r="D12" t="n">
-        <v>2.58</v>
+        <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.22</v>
+        <v>0.76</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.8</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="13">
@@ -1666,28 +1484,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.96</v>
+        <v>1.07</v>
       </c>
       <c r="C13" t="n">
-        <v>76.3</v>
+        <v>3.36</v>
       </c>
       <c r="D13" t="n">
-        <v>2.58</v>
+        <v>0.16</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.88</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="14">
@@ -1697,28 +1509,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.96</v>
+        <v>1.07</v>
       </c>
       <c r="C14" t="n">
-        <v>76.3</v>
+        <v>3.36</v>
       </c>
       <c r="D14" t="n">
-        <v>2.58</v>
+        <v>0.16</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.93</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="15">
@@ -1728,33 +1534,277 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.96</v>
+        <v>1.07</v>
       </c>
       <c r="C15" t="n">
-        <v>76.3</v>
+        <v>3.36</v>
       </c>
       <c r="D15" t="n">
-        <v>2.58</v>
+        <v>0.16</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="G15" t="n">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Year 11</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
+      <c r="F16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Year 12</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Year 13</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Year 14</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Year 15</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Year 16</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G21" t="n">
+        <v>16.84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Year 17</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Year 18</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G23" t="n">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Year 19</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G24" t="n">
+        <v>19.67</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Year 20</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20.65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1766,7 +1816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1796,11 +1846,6 @@
           <t>Battery usage</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank usage</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1828,11 +1873,6 @@
           <t>%</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1841,19 +1881,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.09</v>
+        <v>22.57</v>
       </c>
       <c r="C4" t="n">
-        <v>99.84999999999999</v>
+        <v>88.69</v>
       </c>
       <c r="D4" t="n">
-        <v>84.5</v>
+        <v>18.25</v>
       </c>
       <c r="E4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="F4" t="n">
-        <v>166.9</v>
+        <v>68.45999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1863,19 +1900,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.18</v>
+        <v>45.68</v>
       </c>
       <c r="C5" t="n">
-        <v>99.54000000000001</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>81.70999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="E5" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="F5" t="n">
-        <v>99.33</v>
+        <v>66.17</v>
       </c>
     </row>
     <row r="6">
@@ -1885,19 +1919,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.18</v>
+        <v>24.4</v>
       </c>
       <c r="C6" t="n">
-        <v>99.83</v>
+        <v>87.31</v>
       </c>
       <c r="D6" t="n">
-        <v>84.11</v>
+        <v>16.72</v>
       </c>
       <c r="E6" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="F6" t="n">
-        <v>167.39</v>
+        <v>65.31</v>
       </c>
     </row>
     <row r="7">
@@ -1907,19 +1938,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.32</v>
+        <v>25.46</v>
       </c>
       <c r="C7" t="n">
-        <v>99.81999999999999</v>
+        <v>86.52</v>
       </c>
       <c r="D7" t="n">
-        <v>83.90000000000001</v>
+        <v>16.06</v>
       </c>
       <c r="E7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>167.3</v>
+        <v>63.59</v>
       </c>
     </row>
     <row r="8">
@@ -1929,19 +1957,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.42</v>
+        <v>26.75</v>
       </c>
       <c r="C8" t="n">
-        <v>99.81</v>
+        <v>85.61</v>
       </c>
       <c r="D8" t="n">
-        <v>83.69</v>
+        <v>15.53</v>
       </c>
       <c r="E8" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F8" t="n">
-        <v>167.28</v>
+        <v>61.78</v>
       </c>
     </row>
     <row r="9">
@@ -1951,19 +1976,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.5</v>
+        <v>27.92</v>
       </c>
       <c r="C9" t="n">
-        <v>99.79000000000001</v>
+        <v>84.73</v>
       </c>
       <c r="D9" t="n">
-        <v>83.48</v>
+        <v>14.97</v>
       </c>
       <c r="E9" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="F9" t="n">
-        <v>167.33</v>
+        <v>59.96</v>
       </c>
     </row>
     <row r="10">
@@ -1973,19 +1995,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.74</v>
+        <v>29.27</v>
       </c>
       <c r="C10" t="n">
-        <v>99.77</v>
+        <v>83.75</v>
       </c>
       <c r="D10" t="n">
-        <v>83.25</v>
+        <v>14.45</v>
       </c>
       <c r="E10" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F10" t="n">
-        <v>166.99</v>
+        <v>58.19</v>
       </c>
     </row>
     <row r="11">
@@ -1995,19 +2014,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.92</v>
+        <v>30.32</v>
       </c>
       <c r="C11" t="n">
-        <v>99.75</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>83.03</v>
+        <v>13.92</v>
       </c>
       <c r="E11" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="F11" t="n">
-        <v>167.44</v>
+        <v>56.54</v>
       </c>
     </row>
     <row r="12">
@@ -2017,19 +2033,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.01</v>
+        <v>31.52</v>
       </c>
       <c r="C12" t="n">
-        <v>99.73</v>
+        <v>81.95</v>
       </c>
       <c r="D12" t="n">
-        <v>82.8</v>
+        <v>13.35</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="F12" t="n">
-        <v>167.27</v>
+        <v>54.79</v>
       </c>
     </row>
     <row r="13">
@@ -2039,19 +2052,206 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.17</v>
+        <v>32.59</v>
       </c>
       <c r="C13" t="n">
-        <v>99.70999999999999</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>82.56</v>
+        <v>12.83</v>
       </c>
       <c r="E13" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="F13" t="n">
-        <v>167.4</v>
+        <v>53.27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Year 11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>80.06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="E14" t="n">
+        <v>51.69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Year 12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="C15" t="n">
+        <v>79.15000000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E15" t="n">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Year 13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="C16" t="n">
+        <v>78.17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="E16" t="n">
+        <v>48.82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Year 14</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="E17" t="n">
+        <v>47.51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Year 15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="C18" t="n">
+        <v>76.27</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E18" t="n">
+        <v>46.17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Year 16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>39.03</v>
+      </c>
+      <c r="C19" t="n">
+        <v>75.27</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="E19" t="n">
+        <v>44.93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Year 17</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>40.06</v>
+      </c>
+      <c r="C20" t="n">
+        <v>74.27</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>43.78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Year 18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Year 19</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>41.71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Year 20</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>43.02</v>
+      </c>
+      <c r="C23" t="n">
+        <v>71.28</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E23" t="n">
+        <v>40.85</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2085,20 +2285,14 @@
           <t>Renewable penetration</t>
         </is>
       </c>
-      <c r="D1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Curtailment share</t>
+        </is>
+      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Curtailment share</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Battery usage</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank usage</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2314,12 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Wind Turbine</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
           <t>Battery bank</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Ice Tank</t>
         </is>
       </c>
     </row>
@@ -2157,12 +2341,6 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2190,16 +2368,6 @@
           <t>%</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2208,22 +2376,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.98</v>
+        <v>14.62</v>
       </c>
       <c r="C6" t="n">
-        <v>35.42</v>
+        <v>88.69</v>
       </c>
       <c r="D6" t="n">
-        <v>64.43000000000001</v>
+        <v>18.25</v>
       </c>
       <c r="E6" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="G6" t="n">
-        <v>166.9</v>
+        <v>68.45999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -2233,22 +2395,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.53</v>
+        <v>23.93</v>
       </c>
       <c r="C7" t="n">
-        <v>35.31</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>64.23</v>
+        <v>8.41</v>
       </c>
       <c r="E7" t="n">
-        <v>81.70999999999999</v>
-      </c>
-      <c r="F7" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="G7" t="n">
-        <v>99.33</v>
+        <v>66.17</v>
       </c>
     </row>
     <row r="8">
@@ -2258,22 +2414,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.06</v>
+        <v>16.1</v>
       </c>
       <c r="C8" t="n">
-        <v>35.41</v>
+        <v>87.31</v>
       </c>
       <c r="D8" t="n">
-        <v>64.42</v>
+        <v>16.72</v>
       </c>
       <c r="E8" t="n">
-        <v>84.11</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="G8" t="n">
-        <v>167.39</v>
+        <v>65.31</v>
       </c>
     </row>
     <row r="9">
@@ -2283,22 +2433,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.14</v>
+        <v>16.95</v>
       </c>
       <c r="C9" t="n">
-        <v>35.41</v>
+        <v>86.52</v>
       </c>
       <c r="D9" t="n">
-        <v>64.41</v>
+        <v>16.06</v>
       </c>
       <c r="E9" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>167.3</v>
+        <v>63.59</v>
       </c>
     </row>
     <row r="10">
@@ -2308,22 +2452,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.2</v>
+        <v>17.96</v>
       </c>
       <c r="C10" t="n">
-        <v>35.4</v>
+        <v>85.61</v>
       </c>
       <c r="D10" t="n">
-        <v>64.40000000000001</v>
+        <v>15.53</v>
       </c>
       <c r="E10" t="n">
-        <v>83.69</v>
-      </c>
-      <c r="F10" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="G10" t="n">
-        <v>167.28</v>
+        <v>61.78</v>
       </c>
     </row>
     <row r="11">
@@ -2333,22 +2471,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.26</v>
+        <v>18.92</v>
       </c>
       <c r="C11" t="n">
-        <v>35.4</v>
+        <v>84.73</v>
       </c>
       <c r="D11" t="n">
-        <v>64.39</v>
+        <v>14.97</v>
       </c>
       <c r="E11" t="n">
-        <v>83.48</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="G11" t="n">
-        <v>167.33</v>
+        <v>59.96</v>
       </c>
     </row>
     <row r="12">
@@ -2358,22 +2490,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.4</v>
+        <v>19.99</v>
       </c>
       <c r="C12" t="n">
-        <v>35.39</v>
+        <v>83.75</v>
       </c>
       <c r="D12" t="n">
-        <v>64.38</v>
+        <v>14.45</v>
       </c>
       <c r="E12" t="n">
-        <v>83.25</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="G12" t="n">
-        <v>166.99</v>
+        <v>58.19</v>
       </c>
     </row>
     <row r="13">
@@ -2383,22 +2509,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.51</v>
+        <v>20.89</v>
       </c>
       <c r="C13" t="n">
-        <v>35.38</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>64.36</v>
+        <v>13.92</v>
       </c>
       <c r="E13" t="n">
-        <v>83.03</v>
-      </c>
-      <c r="F13" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="G13" t="n">
-        <v>167.44</v>
+        <v>56.54</v>
       </c>
     </row>
     <row r="14">
@@ -2408,22 +2528,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.58</v>
+        <v>21.88</v>
       </c>
       <c r="C14" t="n">
-        <v>35.38</v>
+        <v>81.95</v>
       </c>
       <c r="D14" t="n">
-        <v>64.34999999999999</v>
+        <v>13.35</v>
       </c>
       <c r="E14" t="n">
-        <v>82.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="G14" t="n">
-        <v>167.27</v>
+        <v>54.79</v>
       </c>
     </row>
     <row r="15">
@@ -2433,28 +2547,209 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.69</v>
+        <v>22.81</v>
       </c>
       <c r="C15" t="n">
-        <v>35.37</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>64.34</v>
+        <v>12.83</v>
       </c>
       <c r="E15" t="n">
-        <v>82.56</v>
-      </c>
-      <c r="F15" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="G15" t="n">
-        <v>167.4</v>
+        <v>53.27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Year 11</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="C16" t="n">
+        <v>80.06</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="E16" t="n">
+        <v>51.69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Year 12</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="C17" t="n">
+        <v>79.15000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Year 13</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="C18" t="n">
+        <v>78.17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="E18" t="n">
+        <v>48.82</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Year 14</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="C19" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="E19" t="n">
+        <v>47.51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Year 15</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="C20" t="n">
+        <v>76.27</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E20" t="n">
+        <v>46.17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Year 16</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>75.27</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="E21" t="n">
+        <v>44.93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Year 17</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="C22" t="n">
+        <v>74.27</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>43.78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Year 18</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="C23" t="n">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Year 19</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="C24" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>41.71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Year 20</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="C25" t="n">
+        <v>71.28</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E25" t="n">
+        <v>40.85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62.39</v>
+        <v>67.91</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>169.49</v>
+        <v>137.61</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12.51</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="5">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10.3</v>
+        <v>16.27</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>209.433</v>
+        <v>185.385</v>
       </c>
     </row>
     <row r="3">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>209.433</v>
+        <v>185.385</v>
       </c>
     </row>
     <row r="4">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>118.271</v>
+        <v>113.572</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.509</v>
+        <v>23.537</v>
       </c>
     </row>
     <row r="6">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>64.65300000000001</v>
+        <v>48.276</v>
       </c>
     </row>
     <row r="7">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.3327</v>
+        <v>0.2905</v>
       </c>
     </row>
     <row r="9">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3327</v>
+        <v>0.2905</v>
       </c>
     </row>
     <row r="10">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>59.272</v>
+        <v>64.514</v>
       </c>
     </row>
     <row r="11">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>55.931</v>
+        <v>45.412</v>
       </c>
     </row>
     <row r="12">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="13">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.501</v>
+        <v>2.751</v>
       </c>
     </row>
     <row r="14">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.161</v>
+        <v>6.706</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.38</v>
+        <v>15.735</v>
       </c>
     </row>
     <row r="16">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.065</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="17">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.903</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="18">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.363</v>
+        <v>3.438</v>
       </c>
     </row>
     <row r="20">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60.29</v>
+        <v>44.838</v>
       </c>
     </row>
     <row r="21">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>516.596</v>
+        <v>454.775</v>
       </c>
     </row>
     <row r="22">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>516.596</v>
+        <v>454.775</v>
       </c>
     </row>
   </sheetData>
@@ -1309,22 +1309,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C6" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="G6" t="n">
-        <v>6.53</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="7">
@@ -1334,22 +1334,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C7" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="G7" t="n">
-        <v>13.59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1359,22 +1359,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C8" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="G8" t="n">
-        <v>7.45</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="9">
@@ -1384,22 +1384,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C9" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D9" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="G9" t="n">
-        <v>7.98</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="10">
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C10" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="G10" t="n">
-        <v>8.609999999999999</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="11">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C11" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D11" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="G11" t="n">
-        <v>9.23</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="12">
@@ -1459,22 +1459,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C12" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D12" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="G12" t="n">
-        <v>9.94</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="13">
@@ -1484,22 +1484,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C13" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="G13" t="n">
-        <v>10.57</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="14">
@@ -1509,22 +1509,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C14" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="G14" t="n">
-        <v>11.29</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="15">
@@ -1534,22 +1534,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C15" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D15" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="G15" t="n">
-        <v>11.98</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1559,22 +1559,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C16" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D16" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="G16" t="n">
-        <v>12.76</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="17">
@@ -1584,22 +1584,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C17" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D17" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="G17" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C18" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D18" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="G18" t="n">
-        <v>14.31</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="19">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C19" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D19" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="G19" t="n">
-        <v>15.12</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="20">
@@ -1659,22 +1659,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C20" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D20" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="G20" t="n">
-        <v>15.94</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="21">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C21" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D21" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="G21" t="n">
-        <v>16.84</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="22">
@@ -1709,22 +1709,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C22" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="G22" t="n">
-        <v>17.75</v>
+        <v>14.83</v>
       </c>
     </row>
     <row r="23">
@@ -1734,22 +1734,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C23" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="G23" t="n">
-        <v>18.68</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="24">
@@ -1759,22 +1759,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C24" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D24" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="G24" t="n">
-        <v>19.67</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="25">
@@ -1784,22 +1784,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="C25" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="D25" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="G25" t="n">
-        <v>20.65</v>
+        <v>17.46</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1846,6 +1846,11 @@
           <t>Battery usage</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Compressor usage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1873,6 +1878,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1881,16 +1891,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.57</v>
+        <v>16.6</v>
       </c>
       <c r="C4" t="n">
-        <v>88.69</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>18.25</v>
+        <v>21.78</v>
       </c>
       <c r="E4" t="n">
-        <v>68.45999999999999</v>
+        <v>54.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>56.65</v>
       </c>
     </row>
     <row r="5">
@@ -1900,16 +1913,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.68</v>
+        <v>29.68</v>
       </c>
       <c r="C5" t="n">
-        <v>79.04000000000001</v>
+        <v>86.33</v>
       </c>
       <c r="D5" t="n">
-        <v>8.41</v>
+        <v>7.34</v>
       </c>
       <c r="E5" t="n">
-        <v>66.17</v>
+        <v>51.06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>94.45999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1919,16 +1935,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.4</v>
+        <v>19.62</v>
       </c>
       <c r="C6" t="n">
-        <v>87.31</v>
+        <v>90.3</v>
       </c>
       <c r="D6" t="n">
-        <v>16.72</v>
+        <v>20.7</v>
       </c>
       <c r="E6" t="n">
-        <v>65.31</v>
+        <v>51.62</v>
+      </c>
+      <c r="F6" t="n">
+        <v>53.64</v>
       </c>
     </row>
     <row r="7">
@@ -1938,16 +1957,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.46</v>
+        <v>21.01</v>
       </c>
       <c r="C7" t="n">
-        <v>86.52</v>
+        <v>89.44</v>
       </c>
       <c r="D7" t="n">
-        <v>16.06</v>
+        <v>20.13</v>
       </c>
       <c r="E7" t="n">
-        <v>63.59</v>
+        <v>50.13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>52.27</v>
       </c>
     </row>
     <row r="8">
@@ -1957,16 +1979,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.75</v>
+        <v>22.42</v>
       </c>
       <c r="C8" t="n">
-        <v>85.61</v>
+        <v>88.54000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>15.53</v>
+        <v>19.58</v>
       </c>
       <c r="E8" t="n">
-        <v>61.78</v>
+        <v>48.63</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50.92</v>
       </c>
     </row>
     <row r="9">
@@ -1976,16 +2001,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.92</v>
+        <v>23.77</v>
       </c>
       <c r="C9" t="n">
-        <v>84.73</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>14.97</v>
+        <v>19.02</v>
       </c>
       <c r="E9" t="n">
-        <v>59.96</v>
+        <v>47.19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>49.61</v>
       </c>
     </row>
     <row r="10">
@@ -1995,16 +2023,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.27</v>
+        <v>25.17</v>
       </c>
       <c r="C10" t="n">
-        <v>83.75</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>14.45</v>
+        <v>18.47</v>
       </c>
       <c r="E10" t="n">
-        <v>58.19</v>
+        <v>45.77</v>
+      </c>
+      <c r="F10" t="n">
+        <v>48.4</v>
       </c>
     </row>
     <row r="11">
@@ -2014,16 +2045,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.32</v>
+        <v>26.35</v>
       </c>
       <c r="C11" t="n">
-        <v>82.90000000000001</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>13.92</v>
+        <v>17.93</v>
       </c>
       <c r="E11" t="n">
-        <v>56.54</v>
+        <v>44.48</v>
+      </c>
+      <c r="F11" t="n">
+        <v>47.02</v>
       </c>
     </row>
     <row r="12">
@@ -2033,16 +2067,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.52</v>
+        <v>27.68</v>
       </c>
       <c r="C12" t="n">
-        <v>81.95</v>
+        <v>84.91</v>
       </c>
       <c r="D12" t="n">
-        <v>13.35</v>
+        <v>17.36</v>
       </c>
       <c r="E12" t="n">
-        <v>54.79</v>
+        <v>43.13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>45.88</v>
       </c>
     </row>
     <row r="13">
@@ -2052,16 +2089,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.59</v>
+        <v>28.9</v>
       </c>
       <c r="C13" t="n">
-        <v>81.04000000000001</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>12.83</v>
+        <v>16.82</v>
       </c>
       <c r="E13" t="n">
-        <v>53.27</v>
+        <v>41.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>44.65</v>
       </c>
     </row>
     <row r="14">
@@ -2071,16 +2111,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.8</v>
+        <v>30.13</v>
       </c>
       <c r="C14" t="n">
-        <v>80.06</v>
+        <v>83.05</v>
       </c>
       <c r="D14" t="n">
-        <v>12.34</v>
+        <v>16.31</v>
       </c>
       <c r="E14" t="n">
-        <v>51.69</v>
+        <v>40.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>43.43</v>
       </c>
     </row>
     <row r="15">
@@ -2090,16 +2133,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81</v>
+        <v>31.29</v>
       </c>
       <c r="C15" t="n">
-        <v>79.15000000000001</v>
+        <v>82.13</v>
       </c>
       <c r="D15" t="n">
-        <v>11.82</v>
+        <v>15.78</v>
       </c>
       <c r="E15" t="n">
-        <v>50.26</v>
+        <v>39.57</v>
+      </c>
+      <c r="F15" t="n">
+        <v>42.25</v>
       </c>
     </row>
     <row r="16">
@@ -2109,16 +2155,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.92</v>
+        <v>32.48</v>
       </c>
       <c r="C16" t="n">
-        <v>78.17</v>
+        <v>81.17</v>
       </c>
       <c r="D16" t="n">
-        <v>11.31</v>
+        <v>15.23</v>
       </c>
       <c r="E16" t="n">
-        <v>48.82</v>
+        <v>38.47</v>
+      </c>
+      <c r="F16" t="n">
+        <v>41.17</v>
       </c>
     </row>
     <row r="17">
@@ -2128,16 +2177,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.96</v>
+        <v>33.6</v>
       </c>
       <c r="C17" t="n">
-        <v>77.22</v>
+        <v>80.23</v>
       </c>
       <c r="D17" t="n">
-        <v>10.76</v>
+        <v>14.65</v>
       </c>
       <c r="E17" t="n">
-        <v>47.51</v>
+        <v>37.42</v>
+      </c>
+      <c r="F17" t="n">
+        <v>40.13</v>
       </c>
     </row>
     <row r="18">
@@ -2147,16 +2199,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37.95</v>
+        <v>34.69</v>
       </c>
       <c r="C18" t="n">
-        <v>76.27</v>
+        <v>79.28</v>
       </c>
       <c r="D18" t="n">
-        <v>10.26</v>
+        <v>14.13</v>
       </c>
       <c r="E18" t="n">
-        <v>46.17</v>
+        <v>36.41</v>
+      </c>
+      <c r="F18" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -2166,16 +2221,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.03</v>
+        <v>35.82</v>
       </c>
       <c r="C19" t="n">
-        <v>75.27</v>
+        <v>78.3</v>
       </c>
       <c r="D19" t="n">
-        <v>9.77</v>
+        <v>13.6</v>
       </c>
       <c r="E19" t="n">
-        <v>44.93</v>
+        <v>35.45</v>
+      </c>
+      <c r="F19" t="n">
+        <v>37.98</v>
       </c>
     </row>
     <row r="20">
@@ -2185,16 +2243,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.06</v>
+        <v>36.94</v>
       </c>
       <c r="C20" t="n">
-        <v>74.27</v>
+        <v>77.31</v>
       </c>
       <c r="D20" t="n">
-        <v>9.220000000000001</v>
+        <v>13.03</v>
       </c>
       <c r="E20" t="n">
-        <v>43.78</v>
+        <v>34.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>37.06</v>
       </c>
     </row>
     <row r="21">
@@ -2204,16 +2265,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>41.05</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>73.29000000000001</v>
+        <v>76.33</v>
       </c>
       <c r="D21" t="n">
-        <v>8.710000000000001</v>
+        <v>12.49</v>
       </c>
       <c r="E21" t="n">
-        <v>42.7</v>
+        <v>33.66</v>
+      </c>
+      <c r="F21" t="n">
+        <v>36.08</v>
       </c>
     </row>
     <row r="22">
@@ -2223,16 +2287,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.1</v>
+        <v>39.12</v>
       </c>
       <c r="C22" t="n">
-        <v>72.26000000000001</v>
+        <v>75.31</v>
       </c>
       <c r="D22" t="n">
-        <v>8.220000000000001</v>
+        <v>11.95</v>
       </c>
       <c r="E22" t="n">
-        <v>41.71</v>
+        <v>32.94</v>
+      </c>
+      <c r="F22" t="n">
+        <v>35.19</v>
       </c>
     </row>
     <row r="23">
@@ -2242,16 +2309,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>43.02</v>
+        <v>40.15</v>
       </c>
       <c r="C23" t="n">
-        <v>71.28</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>7.72</v>
+        <v>11.44</v>
       </c>
       <c r="E23" t="n">
-        <v>40.85</v>
+        <v>32.31</v>
+      </c>
+      <c r="F23" t="n">
+        <v>34.21</v>
       </c>
     </row>
   </sheetData>
@@ -2376,16 +2446,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.62</v>
+        <v>10.6</v>
       </c>
       <c r="C6" t="n">
-        <v>88.69</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>18.25</v>
+        <v>21.78</v>
       </c>
       <c r="E6" t="n">
-        <v>68.45999999999999</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="7">
@@ -2395,16 +2465,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.93</v>
+        <v>15.26</v>
       </c>
       <c r="C7" t="n">
-        <v>79.04000000000001</v>
+        <v>86.33</v>
       </c>
       <c r="D7" t="n">
-        <v>8.41</v>
+        <v>7.34</v>
       </c>
       <c r="E7" t="n">
-        <v>66.17</v>
+        <v>51.06</v>
       </c>
     </row>
     <row r="8">
@@ -2414,16 +2484,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.1</v>
+        <v>12.77</v>
       </c>
       <c r="C8" t="n">
-        <v>87.31</v>
+        <v>90.3</v>
       </c>
       <c r="D8" t="n">
-        <v>16.72</v>
+        <v>20.7</v>
       </c>
       <c r="E8" t="n">
-        <v>65.31</v>
+        <v>51.62</v>
       </c>
     </row>
     <row r="9">
@@ -2433,16 +2503,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.95</v>
+        <v>13.8</v>
       </c>
       <c r="C9" t="n">
-        <v>86.52</v>
+        <v>89.44</v>
       </c>
       <c r="D9" t="n">
-        <v>16.06</v>
+        <v>20.13</v>
       </c>
       <c r="E9" t="n">
-        <v>63.59</v>
+        <v>50.13</v>
       </c>
     </row>
     <row r="10">
@@ -2452,16 +2522,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.96</v>
+        <v>14.86</v>
       </c>
       <c r="C10" t="n">
-        <v>85.61</v>
+        <v>88.54000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>15.53</v>
+        <v>19.58</v>
       </c>
       <c r="E10" t="n">
-        <v>61.78</v>
+        <v>48.63</v>
       </c>
     </row>
     <row r="11">
@@ -2471,16 +2541,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.92</v>
+        <v>15.89</v>
       </c>
       <c r="C11" t="n">
-        <v>84.73</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>14.97</v>
+        <v>19.02</v>
       </c>
       <c r="E11" t="n">
-        <v>59.96</v>
+        <v>47.19</v>
       </c>
     </row>
     <row r="12">
@@ -2490,16 +2560,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.99</v>
+        <v>16.96</v>
       </c>
       <c r="C12" t="n">
-        <v>83.75</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>14.45</v>
+        <v>18.47</v>
       </c>
       <c r="E12" t="n">
-        <v>58.19</v>
+        <v>45.77</v>
       </c>
     </row>
     <row r="13">
@@ -2509,16 +2579,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.89</v>
+        <v>17.93</v>
       </c>
       <c r="C13" t="n">
-        <v>82.90000000000001</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>13.92</v>
+        <v>17.93</v>
       </c>
       <c r="E13" t="n">
-        <v>56.54</v>
+        <v>44.48</v>
       </c>
     </row>
     <row r="14">
@@ -2528,16 +2598,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.88</v>
+        <v>18.98</v>
       </c>
       <c r="C14" t="n">
-        <v>81.95</v>
+        <v>84.91</v>
       </c>
       <c r="D14" t="n">
-        <v>13.35</v>
+        <v>17.36</v>
       </c>
       <c r="E14" t="n">
-        <v>54.79</v>
+        <v>43.13</v>
       </c>
     </row>
     <row r="15">
@@ -2547,16 +2617,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.81</v>
+        <v>19.98</v>
       </c>
       <c r="C15" t="n">
-        <v>81.04000000000001</v>
+        <v>83.98999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>12.83</v>
+        <v>16.82</v>
       </c>
       <c r="E15" t="n">
-        <v>53.27</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="16">
@@ -2566,16 +2636,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.85</v>
+        <v>21.01</v>
       </c>
       <c r="C16" t="n">
-        <v>80.06</v>
+        <v>83.05</v>
       </c>
       <c r="D16" t="n">
-        <v>12.34</v>
+        <v>16.31</v>
       </c>
       <c r="E16" t="n">
-        <v>51.69</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="17">
@@ -2585,16 +2655,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.76</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>79.15000000000001</v>
+        <v>82.13</v>
       </c>
       <c r="D17" t="n">
-        <v>11.82</v>
+        <v>15.78</v>
       </c>
       <c r="E17" t="n">
-        <v>50.26</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="18">
@@ -2604,16 +2674,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25.75</v>
+        <v>23.01</v>
       </c>
       <c r="C18" t="n">
-        <v>78.17</v>
+        <v>81.17</v>
       </c>
       <c r="D18" t="n">
-        <v>11.31</v>
+        <v>15.23</v>
       </c>
       <c r="E18" t="n">
-        <v>48.82</v>
+        <v>38.47</v>
       </c>
     </row>
     <row r="19">
@@ -2623,16 +2693,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.68</v>
+        <v>23.98</v>
       </c>
       <c r="C19" t="n">
-        <v>77.22</v>
+        <v>80.23</v>
       </c>
       <c r="D19" t="n">
-        <v>10.76</v>
+        <v>14.65</v>
       </c>
       <c r="E19" t="n">
-        <v>47.51</v>
+        <v>37.42</v>
       </c>
     </row>
     <row r="20">
@@ -2642,16 +2712,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27.61</v>
+        <v>24.95</v>
       </c>
       <c r="C20" t="n">
-        <v>76.27</v>
+        <v>79.28</v>
       </c>
       <c r="D20" t="n">
-        <v>10.26</v>
+        <v>14.13</v>
       </c>
       <c r="E20" t="n">
-        <v>46.17</v>
+        <v>36.41</v>
       </c>
     </row>
     <row r="21">
@@ -2661,16 +2731,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.6</v>
+        <v>25.96</v>
       </c>
       <c r="C21" t="n">
-        <v>75.27</v>
+        <v>78.3</v>
       </c>
       <c r="D21" t="n">
-        <v>9.77</v>
+        <v>13.6</v>
       </c>
       <c r="E21" t="n">
-        <v>44.93</v>
+        <v>35.45</v>
       </c>
     </row>
     <row r="22">
@@ -2680,16 +2750,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.55</v>
+        <v>26.95</v>
       </c>
       <c r="C22" t="n">
-        <v>74.27</v>
+        <v>77.31</v>
       </c>
       <c r="D22" t="n">
-        <v>9.220000000000001</v>
+        <v>13.03</v>
       </c>
       <c r="E22" t="n">
-        <v>43.78</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="23">
@@ -2699,16 +2769,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.49</v>
+        <v>27.93</v>
       </c>
       <c r="C23" t="n">
-        <v>73.29000000000001</v>
+        <v>76.33</v>
       </c>
       <c r="D23" t="n">
-        <v>8.710000000000001</v>
+        <v>12.49</v>
       </c>
       <c r="E23" t="n">
-        <v>42.7</v>
+        <v>33.66</v>
       </c>
     </row>
     <row r="24">
@@ -2718,16 +2788,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>31.47</v>
+        <v>28.93</v>
       </c>
       <c r="C24" t="n">
-        <v>72.26000000000001</v>
+        <v>75.31</v>
       </c>
       <c r="D24" t="n">
-        <v>8.220000000000001</v>
+        <v>11.95</v>
       </c>
       <c r="E24" t="n">
-        <v>41.71</v>
+        <v>32.94</v>
       </c>
     </row>
     <row r="25">
@@ -2737,16 +2807,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.39</v>
+        <v>29.92</v>
       </c>
       <c r="C25" t="n">
-        <v>71.28</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>7.72</v>
+        <v>11.44</v>
       </c>
       <c r="E25" t="n">
-        <v>40.85</v>
+        <v>32.31</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Results_Summary.xlsx
+++ b/Code/Results/Results_Summary.xlsx
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>67.91</v>
+        <v>65.41</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>137.61</v>
+        <v>116.81</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13.75</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="5">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.27</v>
+        <v>27.83</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>185.385</v>
+        <v>178.662</v>
       </c>
     </row>
     <row r="3">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>185.385</v>
+        <v>178.662</v>
       </c>
     </row>
     <row r="4">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>113.572</v>
+        <v>104.461</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23.537</v>
+        <v>20.801</v>
       </c>
     </row>
     <row r="6">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>48.276</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="7">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2905</v>
+        <v>0.2876</v>
       </c>
     </row>
     <row r="9">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2905</v>
+        <v>0.2876</v>
       </c>
     </row>
     <row r="10">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>64.514</v>
+        <v>62.144</v>
       </c>
     </row>
     <row r="11">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>45.412</v>
+        <v>38.546</v>
       </c>
     </row>
     <row r="12">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.895</v>
+        <v>1.531</v>
       </c>
     </row>
     <row r="13">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.751</v>
+        <v>2.241</v>
       </c>
     </row>
     <row r="14">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.706</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.735</v>
+        <v>13.356</v>
       </c>
     </row>
     <row r="16">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.103</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="17">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.993</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.438</v>
+        <v>2.847</v>
       </c>
     </row>
     <row r="20">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>44.838</v>
+        <v>50.553</v>
       </c>
     </row>
     <row r="21">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>454.775</v>
+        <v>510.878</v>
       </c>
     </row>
     <row r="22">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>454.775</v>
+        <v>510.878</v>
       </c>
     </row>
   </sheetData>
@@ -1309,22 +1309,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C6" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>4.36</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="7">
@@ -1334,22 +1334,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C7" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="8">
@@ -1359,22 +1359,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C8" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D8" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="G8" t="n">
-        <v>5.43</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="9">
@@ -1384,22 +1384,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C9" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D9" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="G9" t="n">
-        <v>5.97</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="10">
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C10" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="G10" t="n">
-        <v>6.54</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="11">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C11" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D11" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="G11" t="n">
-        <v>7.12</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1459,22 +1459,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C12" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D12" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="G12" t="n">
-        <v>7.75</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="13">
@@ -1484,22 +1484,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C13" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="G13" t="n">
-        <v>8.33</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1509,22 +1509,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C14" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D14" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="G14" t="n">
-        <v>8.98</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="15">
@@ -1534,22 +1534,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C15" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D15" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="G15" t="n">
-        <v>9.630000000000001</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="16">
@@ -1559,22 +1559,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C16" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D16" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="G16" t="n">
-        <v>10.31</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="17">
@@ -1584,22 +1584,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C17" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D17" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="18">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C18" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D18" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="G18" t="n">
-        <v>11.72</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="19">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C19" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D19" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>12.46</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="20">
@@ -1659,22 +1659,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C20" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D20" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="G20" t="n">
-        <v>13.21</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="21">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C21" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D21" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="G21" t="n">
-        <v>14.01</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="22">
@@ -1709,22 +1709,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C22" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D22" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="G22" t="n">
-        <v>14.83</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="23">
@@ -1734,22 +1734,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C23" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D23" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="G23" t="n">
-        <v>15.67</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="24">
@@ -1759,22 +1759,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C24" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D24" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="G24" t="n">
-        <v>16.56</v>
+        <v>18.17</v>
       </c>
     </row>
     <row r="25">
@@ -1784,22 +1784,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C25" t="n">
-        <v>2.72</v>
+        <v>2.31</v>
       </c>
       <c r="D25" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="G25" t="n">
-        <v>17.46</v>
+        <v>19.05</v>
       </c>
     </row>
   </sheetData>
@@ -1891,19 +1891,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.6</v>
+        <v>21.79</v>
       </c>
       <c r="C4" t="n">
-        <v>92.06999999999999</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>21.78</v>
+        <v>21.46</v>
       </c>
       <c r="E4" t="n">
-        <v>54.9</v>
+        <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>56.65</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="5">
@@ -1913,19 +1913,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.68</v>
+        <v>23.2</v>
       </c>
       <c r="C5" t="n">
-        <v>86.33</v>
+        <v>88.62</v>
       </c>
       <c r="D5" t="n">
-        <v>7.34</v>
+        <v>20.94</v>
       </c>
       <c r="E5" t="n">
-        <v>51.06</v>
+        <v>43.54</v>
       </c>
       <c r="F5" t="n">
-        <v>94.45999999999999</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="6">
@@ -1935,19 +1935,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.62</v>
+        <v>24.52</v>
       </c>
       <c r="C6" t="n">
-        <v>90.3</v>
+        <v>87.77</v>
       </c>
       <c r="D6" t="n">
-        <v>20.7</v>
+        <v>20.35</v>
       </c>
       <c r="E6" t="n">
-        <v>51.62</v>
+        <v>42.22</v>
       </c>
       <c r="F6" t="n">
-        <v>53.64</v>
+        <v>54.13</v>
       </c>
     </row>
     <row r="7">
@@ -1957,19 +1957,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.01</v>
+        <v>25.81</v>
       </c>
       <c r="C7" t="n">
-        <v>89.44</v>
+        <v>86.91</v>
       </c>
       <c r="D7" t="n">
-        <v>20.13</v>
+        <v>19.79</v>
       </c>
       <c r="E7" t="n">
-        <v>50.13</v>
+        <v>40.93</v>
       </c>
       <c r="F7" t="n">
-        <v>52.27</v>
+        <v>52.72</v>
       </c>
     </row>
     <row r="8">
@@ -1979,19 +1979,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.42</v>
+        <v>27.11</v>
       </c>
       <c r="C8" t="n">
-        <v>88.54000000000001</v>
+        <v>86.02</v>
       </c>
       <c r="D8" t="n">
-        <v>19.58</v>
+        <v>19.26</v>
       </c>
       <c r="E8" t="n">
-        <v>48.63</v>
+        <v>39.64</v>
       </c>
       <c r="F8" t="n">
-        <v>50.92</v>
+        <v>51.35</v>
       </c>
     </row>
     <row r="9">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.77</v>
+        <v>28.25</v>
       </c>
       <c r="C9" t="n">
-        <v>87.65000000000001</v>
+        <v>85.19</v>
       </c>
       <c r="D9" t="n">
-        <v>19.02</v>
+        <v>18.73</v>
       </c>
       <c r="E9" t="n">
-        <v>47.19</v>
+        <v>38.51</v>
       </c>
       <c r="F9" t="n">
-        <v>49.61</v>
+        <v>49.92</v>
       </c>
     </row>
     <row r="10">
@@ -2023,19 +2023,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.17</v>
+        <v>29.55</v>
       </c>
       <c r="C10" t="n">
-        <v>86.70999999999999</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>18.47</v>
+        <v>18.14</v>
       </c>
       <c r="E10" t="n">
-        <v>45.77</v>
+        <v>37.35</v>
       </c>
       <c r="F10" t="n">
-        <v>48.4</v>
+        <v>48.79</v>
       </c>
     </row>
     <row r="11">
@@ -2045,19 +2045,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.35</v>
+        <v>30.77</v>
       </c>
       <c r="C11" t="n">
-        <v>85.84999999999999</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>17.93</v>
+        <v>17.62</v>
       </c>
       <c r="E11" t="n">
-        <v>44.48</v>
+        <v>36.28</v>
       </c>
       <c r="F11" t="n">
-        <v>47.02</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="12">
@@ -2067,19 +2067,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.68</v>
+        <v>31.83</v>
       </c>
       <c r="C12" t="n">
-        <v>84.91</v>
+        <v>82.5</v>
       </c>
       <c r="D12" t="n">
-        <v>17.36</v>
+        <v>17.08</v>
       </c>
       <c r="E12" t="n">
-        <v>43.13</v>
+        <v>35.34</v>
       </c>
       <c r="F12" t="n">
-        <v>45.88</v>
+        <v>46.17</v>
       </c>
     </row>
     <row r="13">
@@ -2089,19 +2089,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.9</v>
+        <v>33.17</v>
       </c>
       <c r="C13" t="n">
-        <v>83.98999999999999</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>16.82</v>
+        <v>16.51</v>
       </c>
       <c r="E13" t="n">
-        <v>41.9</v>
+        <v>34.48</v>
       </c>
       <c r="F13" t="n">
-        <v>44.65</v>
+        <v>45.12</v>
       </c>
     </row>
     <row r="14">
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.13</v>
+        <v>34.28</v>
       </c>
       <c r="C14" t="n">
-        <v>83.05</v>
+        <v>80.58</v>
       </c>
       <c r="D14" t="n">
-        <v>16.31</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>40.7</v>
+        <v>33.8</v>
       </c>
       <c r="F14" t="n">
-        <v>43.43</v>
+        <v>43.83</v>
       </c>
     </row>
     <row r="15">
@@ -2133,19 +2133,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.29</v>
+        <v>35.35</v>
       </c>
       <c r="C15" t="n">
-        <v>82.13</v>
+        <v>79.67</v>
       </c>
       <c r="D15" t="n">
-        <v>15.78</v>
+        <v>15.47</v>
       </c>
       <c r="E15" t="n">
-        <v>39.57</v>
+        <v>33.08</v>
       </c>
       <c r="F15" t="n">
-        <v>42.25</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="16">
@@ -2155,19 +2155,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.48</v>
+        <v>36.53</v>
       </c>
       <c r="C16" t="n">
-        <v>81.17</v>
+        <v>78.69</v>
       </c>
       <c r="D16" t="n">
-        <v>15.23</v>
+        <v>14.93</v>
       </c>
       <c r="E16" t="n">
-        <v>38.47</v>
+        <v>32.45</v>
       </c>
       <c r="F16" t="n">
-        <v>41.17</v>
+        <v>41.53</v>
       </c>
     </row>
     <row r="17">
@@ -2177,19 +2177,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.6</v>
+        <v>37.6</v>
       </c>
       <c r="C17" t="n">
-        <v>80.23</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>14.65</v>
+        <v>14.41</v>
       </c>
       <c r="E17" t="n">
-        <v>37.42</v>
+        <v>31.82</v>
       </c>
       <c r="F17" t="n">
-        <v>40.13</v>
+        <v>40.39</v>
       </c>
     </row>
     <row r="18">
@@ -2199,19 +2199,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.69</v>
+        <v>38.81</v>
       </c>
       <c r="C18" t="n">
-        <v>79.28</v>
+        <v>76.72</v>
       </c>
       <c r="D18" t="n">
-        <v>14.13</v>
+        <v>13.88</v>
       </c>
       <c r="E18" t="n">
-        <v>36.41</v>
+        <v>31.18</v>
       </c>
       <c r="F18" t="n">
-        <v>39</v>
+        <v>39.45</v>
       </c>
     </row>
     <row r="19">
@@ -2221,19 +2221,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.82</v>
+        <v>39.88</v>
       </c>
       <c r="C19" t="n">
-        <v>78.3</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>13.6</v>
+        <v>13.34</v>
       </c>
       <c r="E19" t="n">
-        <v>35.45</v>
+        <v>30.66</v>
       </c>
       <c r="F19" t="n">
-        <v>37.98</v>
+        <v>38.42</v>
       </c>
     </row>
     <row r="20">
@@ -2243,19 +2243,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.94</v>
+        <v>40.82</v>
       </c>
       <c r="C20" t="n">
-        <v>77.31</v>
+        <v>74.81</v>
       </c>
       <c r="D20" t="n">
-        <v>13.03</v>
+        <v>12.88</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5</v>
+        <v>30.13</v>
       </c>
       <c r="F20" t="n">
-        <v>37.06</v>
+        <v>37.23</v>
       </c>
     </row>
     <row r="21">
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38</v>
+        <v>41.82</v>
       </c>
       <c r="C21" t="n">
-        <v>76.33</v>
+        <v>73.84</v>
       </c>
       <c r="D21" t="n">
-        <v>12.49</v>
+        <v>12.33</v>
       </c>
       <c r="E21" t="n">
-        <v>33.66</v>
+        <v>29.6</v>
       </c>
       <c r="F21" t="n">
-        <v>36.08</v>
+        <v>36.27</v>
       </c>
     </row>
     <row r="22">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>39.12</v>
+        <v>42.91</v>
       </c>
       <c r="C22" t="n">
-        <v>75.31</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>11.95</v>
+        <v>11.82</v>
       </c>
       <c r="E22" t="n">
-        <v>32.94</v>
+        <v>29.26</v>
       </c>
       <c r="F22" t="n">
-        <v>35.19</v>
+        <v>35.36</v>
       </c>
     </row>
     <row r="23">
@@ -2309,19 +2309,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.15</v>
+        <v>43.81</v>
       </c>
       <c r="C23" t="n">
-        <v>74.31999999999999</v>
+        <v>71.87</v>
       </c>
       <c r="D23" t="n">
-        <v>11.44</v>
+        <v>11.3</v>
       </c>
       <c r="E23" t="n">
-        <v>32.31</v>
+        <v>28.98</v>
       </c>
       <c r="F23" t="n">
-        <v>34.21</v>
+        <v>34.33</v>
       </c>
     </row>
   </sheetData>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.6</v>
+        <v>13.87</v>
       </c>
       <c r="C6" t="n">
-        <v>92.06999999999999</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>21.78</v>
+        <v>21.46</v>
       </c>
       <c r="E6" t="n">
-        <v>54.9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -2465,16 +2465,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.26</v>
+        <v>14.92</v>
       </c>
       <c r="C7" t="n">
-        <v>86.33</v>
+        <v>88.62</v>
       </c>
       <c r="D7" t="n">
-        <v>7.34</v>
+        <v>20.94</v>
       </c>
       <c r="E7" t="n">
-        <v>51.06</v>
+        <v>43.54</v>
       </c>
     </row>
     <row r="8">
@@ -2484,16 +2484,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.77</v>
+        <v>15.91</v>
       </c>
       <c r="C8" t="n">
-        <v>90.3</v>
+        <v>87.77</v>
       </c>
       <c r="D8" t="n">
-        <v>20.7</v>
+        <v>20.35</v>
       </c>
       <c r="E8" t="n">
-        <v>51.62</v>
+        <v>42.22</v>
       </c>
     </row>
     <row r="9">
@@ -2503,16 +2503,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.8</v>
+        <v>16.9</v>
       </c>
       <c r="C9" t="n">
-        <v>89.44</v>
+        <v>86.91</v>
       </c>
       <c r="D9" t="n">
-        <v>20.13</v>
+        <v>19.79</v>
       </c>
       <c r="E9" t="n">
-        <v>50.13</v>
+        <v>40.93</v>
       </c>
     </row>
     <row r="10">
@@ -2522,16 +2522,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.86</v>
+        <v>17.91</v>
       </c>
       <c r="C10" t="n">
-        <v>88.54000000000001</v>
+        <v>86.02</v>
       </c>
       <c r="D10" t="n">
-        <v>19.58</v>
+        <v>19.26</v>
       </c>
       <c r="E10" t="n">
-        <v>48.63</v>
+        <v>39.64</v>
       </c>
     </row>
     <row r="11">
@@ -2541,16 +2541,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.89</v>
+        <v>18.84</v>
       </c>
       <c r="C11" t="n">
-        <v>87.65000000000001</v>
+        <v>85.19</v>
       </c>
       <c r="D11" t="n">
-        <v>19.02</v>
+        <v>18.73</v>
       </c>
       <c r="E11" t="n">
-        <v>47.19</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="12">
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.96</v>
+        <v>19.86</v>
       </c>
       <c r="C12" t="n">
-        <v>86.70999999999999</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>18.47</v>
+        <v>18.14</v>
       </c>
       <c r="E12" t="n">
-        <v>45.77</v>
+        <v>37.35</v>
       </c>
     </row>
     <row r="13">
@@ -2579,16 +2579,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.93</v>
+        <v>20.86</v>
       </c>
       <c r="C13" t="n">
-        <v>85.84999999999999</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>17.93</v>
+        <v>17.62</v>
       </c>
       <c r="E13" t="n">
-        <v>44.48</v>
+        <v>36.28</v>
       </c>
     </row>
     <row r="14">
@@ -2598,16 +2598,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.98</v>
+        <v>21.78</v>
       </c>
       <c r="C14" t="n">
-        <v>84.91</v>
+        <v>82.5</v>
       </c>
       <c r="D14" t="n">
-        <v>17.36</v>
+        <v>17.08</v>
       </c>
       <c r="E14" t="n">
-        <v>43.13</v>
+        <v>35.34</v>
       </c>
     </row>
     <row r="15">
@@ -2617,16 +2617,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.98</v>
+        <v>22.86</v>
       </c>
       <c r="C15" t="n">
-        <v>83.98999999999999</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>16.82</v>
+        <v>16.51</v>
       </c>
       <c r="E15" t="n">
-        <v>41.9</v>
+        <v>34.48</v>
       </c>
     </row>
     <row r="16">
@@ -2636,16 +2636,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.01</v>
+        <v>23.83</v>
       </c>
       <c r="C16" t="n">
-        <v>83.05</v>
+        <v>80.58</v>
       </c>
       <c r="D16" t="n">
-        <v>16.31</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>40.7</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="17">
@@ -2655,16 +2655,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>24.79</v>
       </c>
       <c r="C17" t="n">
-        <v>82.13</v>
+        <v>79.67</v>
       </c>
       <c r="D17" t="n">
-        <v>15.78</v>
+        <v>15.47</v>
       </c>
       <c r="E17" t="n">
-        <v>39.57</v>
+        <v>33.08</v>
       </c>
     </row>
     <row r="18">
@@ -2674,16 +2674,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.01</v>
+        <v>25.81</v>
       </c>
       <c r="C18" t="n">
-        <v>81.17</v>
+        <v>78.69</v>
       </c>
       <c r="D18" t="n">
-        <v>15.23</v>
+        <v>14.93</v>
       </c>
       <c r="E18" t="n">
-        <v>38.47</v>
+        <v>32.45</v>
       </c>
     </row>
     <row r="19">
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.98</v>
+        <v>26.78</v>
       </c>
       <c r="C19" t="n">
-        <v>80.23</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>14.65</v>
+        <v>14.41</v>
       </c>
       <c r="E19" t="n">
-        <v>37.42</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="20">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.95</v>
+        <v>27.83</v>
       </c>
       <c r="C20" t="n">
-        <v>79.28</v>
+        <v>76.72</v>
       </c>
       <c r="D20" t="n">
-        <v>14.13</v>
+        <v>13.88</v>
       </c>
       <c r="E20" t="n">
-        <v>36.41</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="21">
@@ -2731,16 +2731,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25.96</v>
+        <v>28.81</v>
       </c>
       <c r="C21" t="n">
-        <v>78.3</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>13.6</v>
+        <v>13.34</v>
       </c>
       <c r="E21" t="n">
-        <v>35.45</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="22">
@@ -2750,16 +2750,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.95</v>
+        <v>29.75</v>
       </c>
       <c r="C22" t="n">
-        <v>77.31</v>
+        <v>74.81</v>
       </c>
       <c r="D22" t="n">
-        <v>13.03</v>
+        <v>12.88</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5</v>
+        <v>30.13</v>
       </c>
     </row>
     <row r="23">
@@ -2769,16 +2769,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27.93</v>
+        <v>30.69</v>
       </c>
       <c r="C23" t="n">
-        <v>76.33</v>
+        <v>73.84</v>
       </c>
       <c r="D23" t="n">
-        <v>12.49</v>
+        <v>12.33</v>
       </c>
       <c r="E23" t="n">
-        <v>33.66</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="24">
@@ -2788,16 +2788,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28.93</v>
+        <v>31.7</v>
       </c>
       <c r="C24" t="n">
-        <v>75.31</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>11.95</v>
+        <v>11.82</v>
       </c>
       <c r="E24" t="n">
-        <v>32.94</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="25">
@@ -2807,16 +2807,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.92</v>
+        <v>32.61</v>
       </c>
       <c r="C25" t="n">
-        <v>74.31999999999999</v>
+        <v>71.87</v>
       </c>
       <c r="D25" t="n">
-        <v>11.44</v>
+        <v>11.3</v>
       </c>
       <c r="E25" t="n">
-        <v>32.31</v>
+        <v>28.98</v>
       </c>
     </row>
   </sheetData>
